--- a/db/excel/sqlite-inovation-manager-ver-1.0.xlsx
+++ b/db/excel/sqlite-inovation-manager-ver-1.0.xlsx
@@ -4,24 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14820" tabRatio="500" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
     <sheet name="parameters" sheetId="13" state="hidden" r:id="rId2"/>
     <sheet name="admin_menu" sheetId="12" state="hidden" r:id="rId3"/>
-    <sheet name="admin_functions" sheetId="9" r:id="rId4"/>
+    <sheet name="admin_functions" sheetId="9" state="hidden" r:id="rId4"/>
     <sheet name="admin_group" sheetId="14" state="hidden" r:id="rId5"/>
     <sheet name="admin_roles" sheetId="15" state="hidden" r:id="rId6"/>
-    <sheet name="organizations" sheetId="11" state="hidden" r:id="rId7"/>
+    <sheet name="organizations" sheetId="11" r:id="rId7"/>
     <sheet name="job_roles" sheetId="16" state="hidden" r:id="rId8"/>
     <sheet name="staffs" sheetId="17" state="hidden" r:id="rId9"/>
     <sheet name="user_roles" sheetId="18" r:id="rId10"/>
     <sheet name="users" sheetId="10" r:id="rId11"/>
     <sheet name="ideas" sheetId="8" r:id="rId12"/>
+    <sheet name="ideas_categories" sheetId="19" r:id="rId13"/>
+    <sheet name="ideas_status_type" sheetId="21" r:id="rId14"/>
+    <sheet name="ideas_statuses" sheetId="20" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$G$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$G$207</definedName>
   </definedNames>
   <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="490">
   <si>
     <t>table_name</t>
   </si>
@@ -1121,9 +1124,6 @@
     <t>Tên user đăng nhập duy nhất (sử dụng user là số di động, email...)</t>
   </si>
   <si>
-    <t>Trạng thái ý tưởng (ghi lại trạng thái sau cùng thay đổi khi người dùng thực hiện chuyển trạng thái - người tạo ra, người quản trị, người chủ trì chính trong chuổi quá trình này, new post (=null, =1 hoàn thành, =0 hủy bỏ, = 1.....)</t>
-  </si>
-  <si>
     <t>Mã comment trước trong chuổi comment trả lời</t>
   </si>
   <si>
@@ -1419,6 +1419,96 @@
   </si>
   <si>
     <t>Địa chỉ liên hệ của user</t>
+  </si>
+  <si>
+    <t>Trạng thái hiệu lực</t>
+  </si>
+  <si>
+    <t>Trật tự sắp xếp</t>
+  </si>
+  <si>
+    <t>Công ty demo</t>
+  </si>
+  <si>
+    <t>Sử dụng để demo</t>
+  </si>
+  <si>
+    <t>Công ty dịch vụ Mobifone Khu vực 3</t>
+  </si>
+  <si>
+    <t>Công ty dịch vụ Mobifone khu vực 3</t>
+  </si>
+  <si>
+    <t>Hoàn thành</t>
+  </si>
+  <si>
+    <t>Kết thúc</t>
+  </si>
+  <si>
+    <t>Ý tưởng mới</t>
+  </si>
+  <si>
+    <t>Cùng thảo luận</t>
+  </si>
+  <si>
+    <t>Chấp nhận triển khai</t>
+  </si>
+  <si>
+    <t>Giai đoạn triển khai</t>
+  </si>
+  <si>
+    <t>Develop together</t>
+  </si>
+  <si>
+    <t>Will be implimented</t>
+  </si>
+  <si>
+    <t>New idea</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Maybe later</t>
+  </si>
+  <si>
+    <t>Có thể triển khai sau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,  FOREIGN KEY (organization_id) REFERENCES organizations(id) ,  FOREIGN KEY (status_type) REFERENCES ideas_status_type(id) </t>
+  </si>
+  <si>
+    <t>Trạng thái ý tưởng (ghi lại trạng thái sau cùng thay đổi khi người dùng thực hiện chuyển trạng thái - người tạo ra, người quản trị, người chủ trì chính trong chuổi quá trình này, new post (=null=2=newIdea, =1 hoàn thành, =0 hủy bỏ, = 1.....)</t>
+  </si>
+  <si>
+    <t>changed_username</t>
+  </si>
+  <si>
+    <t>User thay đổi thông tin bảng ghi này</t>
+  </si>
+  <si>
+    <t>#Khác</t>
+  </si>
+  <si>
+    <t>Kinh doanh</t>
+  </si>
+  <si>
+    <t>Chăm sóc khách hàng</t>
+  </si>
+  <si>
+    <t>Khách hàng doanh nghiệp</t>
+  </si>
+  <si>
+    <t>Kỹ thuật, công nghệ</t>
+  </si>
+  <si>
+    <t>Quản lý</t>
+  </si>
+  <si>
+    <t>Sản phẩm mới</t>
+  </si>
+  <si>
+    <t>Động lực làm việc</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1707,7 @@
       <name val="Monaco"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1786,8 +1876,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1825,8 +1927,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="130">
+  <cellStyleXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1957,8 +2070,38 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2281,8 +2424,21 @@
     <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="130">
+  <cellStyles count="160">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -2348,6 +2504,21 @@
     <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2412,6 +2583,21 @@
     <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2817,10 +3003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK210"/>
+  <dimension ref="A1:AMK217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -3887,7 +4073,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="113" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11" t="s">
@@ -3908,7 +4094,7 @@
         <v>39</v>
       </c>
       <c r="D3" s="113" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
@@ -3927,7 +4113,7 @@
         <v>40</v>
       </c>
       <c r="D4" s="113" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
@@ -3946,7 +4132,7 @@
         <v>41</v>
       </c>
       <c r="D5" s="113" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
@@ -3954,7 +4140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1025" ht="54">
+    <row r="6" spans="1:1025" ht="72">
       <c r="A6" s="78" t="s">
         <v>37</v>
       </c>
@@ -3962,10 +4148,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D6" s="113" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
@@ -3984,7 +4170,7 @@
         <v>42</v>
       </c>
       <c r="D7" s="113" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
@@ -4003,7 +4189,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>44</v>
@@ -4024,10 +4210,10 @@
         <v>46</v>
       </c>
       <c r="D9" s="115" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="6">
@@ -4045,7 +4231,7 @@
         <v>47</v>
       </c>
       <c r="D10" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="6"/>
@@ -4064,7 +4250,7 @@
         <v>48</v>
       </c>
       <c r="D11" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="6"/>
@@ -4083,7 +4269,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="6"/>
@@ -4102,7 +4288,7 @@
         <v>52</v>
       </c>
       <c r="D13" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="6"/>
@@ -4121,7 +4307,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="6"/>
@@ -4140,7 +4326,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="6"/>
@@ -4159,7 +4345,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="6"/>
@@ -4178,7 +4364,7 @@
         <v>56</v>
       </c>
       <c r="D17" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="6"/>
@@ -4197,7 +4383,7 @@
         <v>58</v>
       </c>
       <c r="D18" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="6"/>
@@ -4216,7 +4402,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="6"/>
@@ -4224,7 +4410,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="42">
+    <row r="20" spans="1:7" ht="28">
       <c r="A20" s="79" t="s">
         <v>45</v>
       </c>
@@ -4235,10 +4421,10 @@
         <v>59</v>
       </c>
       <c r="D20" s="117" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="6">
@@ -4256,10 +4442,10 @@
         <v>61</v>
       </c>
       <c r="D21" s="118" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="6">
@@ -4277,7 +4463,7 @@
         <v>62</v>
       </c>
       <c r="D22" s="119" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="6"/>
@@ -4296,7 +4482,7 @@
         <v>63</v>
       </c>
       <c r="D23" s="119" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="6"/>
@@ -4315,7 +4501,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="119" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="6"/>
@@ -4334,7 +4520,7 @@
         <v>43</v>
       </c>
       <c r="D25" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="6"/>
@@ -4347,13 +4533,13 @@
         <v>60</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C26" s="95" t="s">
         <v>66</v>
       </c>
       <c r="D26" s="119" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="6"/>
@@ -4372,7 +4558,7 @@
         <v>68</v>
       </c>
       <c r="D27" s="119" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>69</v>
@@ -4393,7 +4579,7 @@
         <v>71</v>
       </c>
       <c r="D28" s="119" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="6"/>
@@ -4412,7 +4598,7 @@
         <v>73</v>
       </c>
       <c r="D29" s="119" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="6"/>
@@ -4431,7 +4617,7 @@
         <v>74</v>
       </c>
       <c r="D30" s="119" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="6"/>
@@ -4450,7 +4636,7 @@
         <v>76</v>
       </c>
       <c r="D31" s="119" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="6"/>
@@ -4469,7 +4655,7 @@
         <v>77</v>
       </c>
       <c r="D32" s="119" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="6"/>
@@ -4488,7 +4674,7 @@
         <v>78</v>
       </c>
       <c r="D33" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="6"/>
@@ -4507,7 +4693,7 @@
         <v>79</v>
       </c>
       <c r="D34" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="6"/>
@@ -4526,7 +4712,7 @@
         <v>80</v>
       </c>
       <c r="D35" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="6"/>
@@ -4545,7 +4731,7 @@
         <v>81</v>
       </c>
       <c r="D36" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="6"/>
@@ -4564,10 +4750,10 @@
         <v>82</v>
       </c>
       <c r="D37" s="117" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="6">
@@ -4585,10 +4771,10 @@
         <v>84</v>
       </c>
       <c r="D38" s="118" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="6">
@@ -4600,17 +4786,19 @@
         <v>83</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C39" s="93" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D39" s="118" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="18"/>
-      <c r="G39" s="6"/>
+      <c r="G39" s="6">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" spans="1:7" ht="54">
       <c r="A40" s="81" t="s">
@@ -4623,12 +4811,12 @@
         <v>86</v>
       </c>
       <c r="D40" s="119" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E40" s="26"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="36">
@@ -4642,12 +4830,12 @@
         <v>87</v>
       </c>
       <c r="D41" s="119" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="90">
@@ -4661,12 +4849,12 @@
         <v>88</v>
       </c>
       <c r="D42" s="119" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -4680,12 +4868,12 @@
         <v>78</v>
       </c>
       <c r="D43" s="119" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -4699,12 +4887,12 @@
         <v>79</v>
       </c>
       <c r="D44" s="119" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -4718,12 +4906,12 @@
         <v>43</v>
       </c>
       <c r="D45" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -4737,14 +4925,14 @@
         <v>89</v>
       </c>
       <c r="D46" s="117" t="s">
+        <v>444</v>
+      </c>
+      <c r="E46" s="24" t="s">
         <v>445</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>446</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="6">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="54">
@@ -4758,14 +4946,14 @@
         <v>91</v>
       </c>
       <c r="D47" s="115" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="6">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4779,12 +4967,12 @@
         <v>92</v>
       </c>
       <c r="D48" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="33"/>
       <c r="G48" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -4798,12 +4986,12 @@
         <v>94</v>
       </c>
       <c r="D49" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="33"/>
       <c r="G49" s="6">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -4817,12 +5005,12 @@
         <v>96</v>
       </c>
       <c r="D50" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="33"/>
       <c r="G50" s="6">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -4836,12 +5024,12 @@
         <v>98</v>
       </c>
       <c r="D51" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="33"/>
       <c r="G51" s="6">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -4855,12 +5043,12 @@
         <v>100</v>
       </c>
       <c r="D52" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="33"/>
       <c r="G52" s="6">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -4874,12 +5062,12 @@
         <v>101</v>
       </c>
       <c r="D53" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="33"/>
       <c r="G53" s="6">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -4893,12 +5081,12 @@
         <v>102</v>
       </c>
       <c r="D54" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="33"/>
       <c r="G54" s="6">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -4912,12 +5100,12 @@
         <v>104</v>
       </c>
       <c r="D55" s="120" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="33"/>
       <c r="G55" s="6">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -4931,12 +5119,12 @@
         <v>106</v>
       </c>
       <c r="D56" s="120" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E56" s="32"/>
       <c r="F56" s="33"/>
       <c r="G56" s="6">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -4950,12 +5138,12 @@
         <v>108</v>
       </c>
       <c r="D57" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E57" s="32"/>
       <c r="F57" s="33"/>
       <c r="G57" s="6">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -4969,12 +5157,12 @@
         <v>109</v>
       </c>
       <c r="D58" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E58" s="32"/>
       <c r="F58" s="33"/>
       <c r="G58" s="6">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -4988,12 +5176,12 @@
         <v>78</v>
       </c>
       <c r="D59" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -5007,12 +5195,12 @@
         <v>79</v>
       </c>
       <c r="D60" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5026,12 +5214,12 @@
         <v>80</v>
       </c>
       <c r="D61" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -5045,12 +5233,12 @@
         <v>81</v>
       </c>
       <c r="D62" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="6"/>
       <c r="G62" s="6">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -5064,12 +5252,12 @@
         <v>43</v>
       </c>
       <c r="D63" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="33"/>
       <c r="G63" s="6">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="42">
@@ -5083,66 +5271,72 @@
         <v>111</v>
       </c>
       <c r="D64" s="117" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="6">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="109" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B65" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="94" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D65" s="117" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E65" s="37"/>
       <c r="F65" s="25"/>
-      <c r="G65" s="6"/>
+      <c r="G65" s="6">
+        <v>64</v>
+      </c>
     </row>
     <row r="66" spans="1:7" ht="36">
       <c r="A66" s="109" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B66" s="28" t="s">
         <v>49</v>
       </c>
       <c r="C66" s="94" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D66" s="117" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E66" s="37"/>
       <c r="F66" s="25"/>
-      <c r="G66" s="6"/>
+      <c r="G66" s="6">
+        <v>65</v>
+      </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="109" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B67" s="28" t="s">
         <v>2</v>
       </c>
       <c r="C67" s="94" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D67" s="117" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E67" s="37"/>
       <c r="F67" s="25"/>
-      <c r="G67" s="6"/>
+      <c r="G67" s="6">
+        <v>66</v>
+      </c>
     </row>
     <row r="68" spans="1:7" ht="54">
       <c r="A68" s="79" t="s">
@@ -5155,14 +5349,14 @@
         <v>113</v>
       </c>
       <c r="D68" s="115" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="6">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="36">
@@ -5176,12 +5370,12 @@
         <v>115</v>
       </c>
       <c r="D69" s="121" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E69" s="39"/>
       <c r="F69" s="40"/>
       <c r="G69" s="6">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="72">
@@ -5195,12 +5389,12 @@
         <v>117</v>
       </c>
       <c r="D70" s="121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E70" s="39"/>
       <c r="F70" s="40"/>
       <c r="G70" s="6">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="36">
@@ -5214,12 +5408,12 @@
         <v>360</v>
       </c>
       <c r="D71" s="121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E71" s="42"/>
       <c r="F71" s="43"/>
       <c r="G71" s="6">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="36">
@@ -5233,12 +5427,12 @@
         <v>120</v>
       </c>
       <c r="D72" s="121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E72" s="42"/>
       <c r="F72" s="43"/>
       <c r="G72" s="6">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="72">
@@ -5252,12 +5446,12 @@
         <v>122</v>
       </c>
       <c r="D73" s="121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E73" s="42"/>
       <c r="F73" s="43"/>
       <c r="G73" s="6">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="36">
@@ -5271,12 +5465,12 @@
         <v>124</v>
       </c>
       <c r="D74" s="121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="40"/>
       <c r="G74" s="6">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -5290,12 +5484,12 @@
         <v>126</v>
       </c>
       <c r="D75" s="121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="40"/>
       <c r="G75" s="6">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -5309,12 +5503,12 @@
         <v>128</v>
       </c>
       <c r="D76" s="121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E76" s="39"/>
       <c r="F76" s="40"/>
       <c r="G76" s="6">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -5328,14 +5522,14 @@
         <v>130</v>
       </c>
       <c r="D77" s="121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E77" s="39"/>
       <c r="F77" s="40" t="s">
         <v>32</v>
       </c>
       <c r="G77" s="6">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -5343,17 +5537,19 @@
         <v>112</v>
       </c>
       <c r="B78" s="41" t="s">
+        <v>458</v>
+      </c>
+      <c r="C78" s="92" t="s">
         <v>459</v>
       </c>
-      <c r="C78" s="92" t="s">
-        <v>460</v>
-      </c>
       <c r="D78" s="121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E78" s="39"/>
       <c r="F78" s="40"/>
-      <c r="G78" s="6"/>
+      <c r="G78" s="6">
+        <v>77</v>
+      </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="79" t="s">
@@ -5366,12 +5562,12 @@
         <v>357</v>
       </c>
       <c r="D79" s="121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E79" s="39"/>
       <c r="F79" s="40"/>
       <c r="G79" s="6">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -5385,12 +5581,12 @@
         <v>358</v>
       </c>
       <c r="D80" s="121" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E80" s="39"/>
       <c r="F80" s="40"/>
       <c r="G80" s="6">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -5401,17 +5597,17 @@
         <v>133</v>
       </c>
       <c r="C81" s="92" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D81" s="122" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E81" s="39" t="s">
         <v>69</v>
       </c>
       <c r="F81" s="40"/>
       <c r="G81" s="6">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="36">
@@ -5425,12 +5621,12 @@
         <v>134</v>
       </c>
       <c r="D82" s="122" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E82" s="39"/>
       <c r="F82" s="40"/>
       <c r="G82" s="6">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="36">
@@ -5444,12 +5640,12 @@
         <v>136</v>
       </c>
       <c r="D83" s="122" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E83" s="39"/>
       <c r="F83" s="40"/>
       <c r="G83" s="6">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -5463,12 +5659,12 @@
         <v>138</v>
       </c>
       <c r="D84" s="121" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="6"/>
       <c r="G84" s="6">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -5482,12 +5678,12 @@
         <v>140</v>
       </c>
       <c r="D85" s="121" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -5501,12 +5697,12 @@
         <v>78</v>
       </c>
       <c r="D86" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -5520,12 +5716,12 @@
         <v>79</v>
       </c>
       <c r="D87" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="6"/>
       <c r="G87" s="6">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -5539,12 +5735,12 @@
         <v>356</v>
       </c>
       <c r="D88" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="6"/>
       <c r="G88" s="6">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -5558,12 +5754,12 @@
         <v>81</v>
       </c>
       <c r="D89" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -5577,12 +5773,12 @@
         <v>143</v>
       </c>
       <c r="D90" s="122" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -5596,12 +5792,12 @@
         <v>145</v>
       </c>
       <c r="D91" s="122" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="54">
@@ -5615,14 +5811,14 @@
         <v>146</v>
       </c>
       <c r="D92" s="123" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E92" s="112" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F92" s="25"/>
       <c r="G92" s="6">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -5634,14 +5830,14 @@
       </c>
       <c r="C93" s="94"/>
       <c r="D93" s="115" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E93" s="51" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F93" s="25"/>
       <c r="G93" s="6">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -5653,12 +5849,12 @@
       </c>
       <c r="C94" s="94"/>
       <c r="D94" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E94" s="37"/>
       <c r="F94" s="25"/>
       <c r="G94" s="6">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -5670,12 +5866,12 @@
       </c>
       <c r="C95" s="94"/>
       <c r="D95" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E95" s="37"/>
       <c r="F95" s="25"/>
       <c r="G95" s="6">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -5687,12 +5883,12 @@
       </c>
       <c r="C96" s="94"/>
       <c r="D96" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E96" s="37"/>
       <c r="F96" s="25"/>
       <c r="G96" s="6">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -5704,12 +5900,12 @@
       </c>
       <c r="C97" s="94"/>
       <c r="D97" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E97" s="37"/>
       <c r="F97" s="25"/>
       <c r="G97" s="6">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5721,12 +5917,12 @@
       </c>
       <c r="C98" s="94"/>
       <c r="D98" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E98" s="37"/>
       <c r="F98" s="25"/>
       <c r="G98" s="6">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -5738,12 +5934,12 @@
       </c>
       <c r="C99" s="94"/>
       <c r="D99" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E99" s="37"/>
       <c r="F99" s="25"/>
       <c r="G99" s="6">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -5755,14 +5951,14 @@
       </c>
       <c r="C100" s="94"/>
       <c r="D100" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E100" s="37" t="s">
         <v>69</v>
       </c>
       <c r="F100" s="25"/>
       <c r="G100" s="6">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="54">
@@ -5776,12 +5972,12 @@
         <v>150</v>
       </c>
       <c r="D101" s="124" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E101" s="46"/>
       <c r="F101" s="6"/>
       <c r="G101" s="6">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -5795,12 +5991,12 @@
         <v>151</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E102" s="46"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="54">
@@ -5814,12 +6010,12 @@
         <v>153</v>
       </c>
       <c r="D103" s="124" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E103" s="46"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="54">
@@ -5833,12 +6029,12 @@
         <v>154</v>
       </c>
       <c r="D104" s="124" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E104" s="46"/>
       <c r="F104" s="6"/>
       <c r="G104" s="6">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -5852,12 +6048,12 @@
         <v>78</v>
       </c>
       <c r="D105" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="6"/>
       <c r="G105" s="6">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -5871,12 +6067,12 @@
         <v>79</v>
       </c>
       <c r="D106" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="6"/>
       <c r="G106" s="6">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -5890,12 +6086,12 @@
         <v>80</v>
       </c>
       <c r="D107" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -5909,12 +6105,12 @@
         <v>81</v>
       </c>
       <c r="D108" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="48">
@@ -5928,14 +6124,14 @@
         <v>155</v>
       </c>
       <c r="D109" s="117" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E109" s="47" t="s">
         <v>156</v>
       </c>
       <c r="F109" s="25"/>
       <c r="G109" s="6">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="54">
@@ -5949,14 +6145,14 @@
         <v>158</v>
       </c>
       <c r="D110" s="115" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E110" s="51" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F110" s="18"/>
       <c r="G110" s="6">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -5970,12 +6166,12 @@
         <v>159</v>
       </c>
       <c r="D111" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="72">
@@ -5989,12 +6185,12 @@
         <v>160</v>
       </c>
       <c r="D112" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="6"/>
       <c r="G112" s="6">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -6008,12 +6204,12 @@
         <v>161</v>
       </c>
       <c r="D113" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="6"/>
       <c r="G113" s="6">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -6027,12 +6223,12 @@
         <v>96</v>
       </c>
       <c r="D114" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="6"/>
       <c r="G114" s="6">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -6046,12 +6242,12 @@
         <v>98</v>
       </c>
       <c r="D115" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -6065,12 +6261,12 @@
         <v>100</v>
       </c>
       <c r="D116" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="6"/>
       <c r="G116" s="6">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -6084,12 +6280,12 @@
         <v>162</v>
       </c>
       <c r="D117" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="6"/>
       <c r="G117" s="6">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -6103,12 +6299,12 @@
         <v>163</v>
       </c>
       <c r="D118" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="6"/>
       <c r="G118" s="6">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -6122,12 +6318,12 @@
         <v>164</v>
       </c>
       <c r="D119" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -6141,12 +6337,12 @@
         <v>165</v>
       </c>
       <c r="D120" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="6"/>
       <c r="G120" s="6">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -6160,12 +6356,12 @@
         <v>166</v>
       </c>
       <c r="D121" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -6179,12 +6375,12 @@
         <v>78</v>
       </c>
       <c r="D122" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -6198,12 +6394,12 @@
         <v>79</v>
       </c>
       <c r="D123" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -6217,12 +6413,12 @@
         <v>80</v>
       </c>
       <c r="D124" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -6236,12 +6432,12 @@
         <v>81</v>
       </c>
       <c r="D125" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="6"/>
       <c r="G125" s="6">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -6255,12 +6451,12 @@
         <v>43</v>
       </c>
       <c r="D126" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="6"/>
       <c r="G126" s="6">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="28">
@@ -6274,14 +6470,14 @@
         <v>167</v>
       </c>
       <c r="D127" s="117" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E127" s="24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F127" s="25"/>
       <c r="G127" s="6">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="54">
@@ -6295,14 +6491,14 @@
         <v>169</v>
       </c>
       <c r="D128" s="118" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E128" s="51" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F128" s="18"/>
       <c r="G128" s="6">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="36">
@@ -6316,12 +6512,12 @@
         <v>171</v>
       </c>
       <c r="D129" s="125" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E129" s="49"/>
       <c r="F129" s="13"/>
       <c r="G129" s="6">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -6335,12 +6531,12 @@
         <v>172</v>
       </c>
       <c r="D130" s="125" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E130" s="50"/>
       <c r="F130" s="13"/>
       <c r="G130" s="6">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -6354,12 +6550,12 @@
         <v>174</v>
       </c>
       <c r="D131" s="125" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E131" s="50"/>
       <c r="F131" s="13"/>
       <c r="G131" s="6">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="36">
@@ -6373,12 +6569,12 @@
         <v>176</v>
       </c>
       <c r="D132" s="125" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E132" s="50"/>
       <c r="F132" s="13"/>
       <c r="G132" s="6">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -6392,12 +6588,12 @@
         <v>177</v>
       </c>
       <c r="D133" s="125" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E133" s="50"/>
       <c r="F133" s="13"/>
       <c r="G133" s="6">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -6411,12 +6607,12 @@
         <v>179</v>
       </c>
       <c r="D134" s="125" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E134" s="50"/>
       <c r="F134" s="13"/>
       <c r="G134" s="6">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -6430,12 +6626,12 @@
         <v>181</v>
       </c>
       <c r="D135" s="125" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E135" s="50"/>
       <c r="F135" s="13"/>
       <c r="G135" s="6">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -6449,12 +6645,12 @@
         <v>183</v>
       </c>
       <c r="D136" s="125" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E136" s="50"/>
       <c r="F136" s="13"/>
       <c r="G136" s="6">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="36">
@@ -6468,12 +6664,12 @@
         <v>185</v>
       </c>
       <c r="D137" s="125" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E137" s="50"/>
       <c r="F137" s="13"/>
       <c r="G137" s="6">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="72">
@@ -6487,12 +6683,12 @@
         <v>187</v>
       </c>
       <c r="D138" s="125" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E138" s="50"/>
       <c r="F138" s="13"/>
       <c r="G138" s="6">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -6506,12 +6702,12 @@
         <v>188</v>
       </c>
       <c r="D139" s="125" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E139" s="50"/>
       <c r="F139" s="13"/>
       <c r="G139" s="6">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -6525,12 +6721,12 @@
         <v>189</v>
       </c>
       <c r="D140" s="125" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E140" s="50"/>
       <c r="F140" s="13"/>
       <c r="G140" s="6">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -6544,12 +6740,12 @@
         <v>78</v>
       </c>
       <c r="D141" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="6"/>
       <c r="G141" s="6">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -6563,12 +6759,12 @@
         <v>79</v>
       </c>
       <c r="D142" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -6582,12 +6778,12 @@
         <v>80</v>
       </c>
       <c r="D143" s="116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E143" s="20"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -6601,12 +6797,12 @@
         <v>81</v>
       </c>
       <c r="D144" s="116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -6620,12 +6816,12 @@
         <v>191</v>
       </c>
       <c r="D145" s="125" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E145" s="50"/>
       <c r="F145" s="13"/>
       <c r="G145" s="6">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -6639,12 +6835,12 @@
         <v>43</v>
       </c>
       <c r="D146" s="114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E146" s="50"/>
       <c r="F146" s="13"/>
       <c r="G146" s="6">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="42">
@@ -6658,14 +6854,14 @@
         <v>192</v>
       </c>
       <c r="D147" s="117" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E147" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F147" s="25"/>
       <c r="G147" s="6">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="25">
@@ -6679,14 +6875,14 @@
         <v>22</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="6">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="37">
@@ -6697,15 +6893,15 @@
         <v>12</v>
       </c>
       <c r="C149" s="100" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="5"/>
       <c r="G149" s="6">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="25">
@@ -6716,15 +6912,15 @@
         <v>114</v>
       </c>
       <c r="C150" s="101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="5"/>
       <c r="G150" s="6">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="25">
@@ -6732,18 +6928,18 @@
         <v>21</v>
       </c>
       <c r="B151" s="68" t="s">
+        <v>408</v>
+      </c>
+      <c r="C151" s="101" t="s">
         <v>409</v>
       </c>
-      <c r="C151" s="101" t="s">
-        <v>410</v>
-      </c>
       <c r="D151" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="5"/>
       <c r="G151" s="6">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="25">
@@ -6751,18 +6947,18 @@
         <v>21</v>
       </c>
       <c r="B152" s="68" t="s">
+        <v>406</v>
+      </c>
+      <c r="C152" s="101" t="s">
         <v>407</v>
       </c>
-      <c r="C152" s="101" t="s">
-        <v>408</v>
-      </c>
       <c r="D152" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="5"/>
       <c r="G152" s="6">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="55">
@@ -6773,15 +6969,15 @@
         <v>23</v>
       </c>
       <c r="C153" s="100" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="5"/>
       <c r="G153" s="6">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="37">
@@ -6795,12 +6991,12 @@
         <v>24</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="5"/>
       <c r="G154" s="6">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="25">
@@ -6814,12 +7010,12 @@
         <v>25</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="5"/>
       <c r="G155" s="6">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="55">
@@ -6830,15 +7026,15 @@
         <v>2</v>
       </c>
       <c r="C156" s="100" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="5"/>
       <c r="G156" s="6">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="25">
@@ -6846,18 +7042,18 @@
         <v>21</v>
       </c>
       <c r="B157" s="67" t="s">
+        <v>373</v>
+      </c>
+      <c r="C157" s="100" t="s">
         <v>374</v>
       </c>
-      <c r="C157" s="100" t="s">
-        <v>375</v>
-      </c>
       <c r="D157" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="5"/>
       <c r="G157" s="6">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="25">
@@ -6871,12 +7067,12 @@
         <v>26</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E158" s="6"/>
       <c r="F158" s="5"/>
       <c r="G158" s="6">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="25">
@@ -6890,12 +7086,12 @@
         <v>28</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E159" s="6"/>
       <c r="F159" s="5"/>
       <c r="G159" s="6">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="25">
@@ -6909,14 +7105,14 @@
         <v>36</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E160" s="7"/>
       <c r="F160" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G160" s="6">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="25">
@@ -6930,31 +7126,33 @@
         <v>29</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E161" s="6"/>
-      <c r="F161" s="5"/>
+      <c r="F161" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="G161" s="6">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="25">
       <c r="A162" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B162" s="67" t="s">
-        <v>18</v>
+      <c r="B162" s="70" t="s">
+        <v>480</v>
       </c>
       <c r="C162" s="92" t="s">
-        <v>30</v>
+        <v>481</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="5"/>
       <c r="G162" s="6">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="25">
@@ -6962,56 +7160,58 @@
         <v>21</v>
       </c>
       <c r="B163" s="67" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C163" s="92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>444</v>
       </c>
       <c r="E163" s="6"/>
-      <c r="F163" s="5"/>
+      <c r="F163" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="G163" s="6">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="37">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="25">
       <c r="A164" s="85" t="s">
         <v>21</v>
       </c>
       <c r="B164" s="67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C164" s="92" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="5"/>
       <c r="G164" s="6">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="37">
       <c r="A165" s="85" t="s">
         <v>21</v>
       </c>
       <c r="B165" s="67" t="s">
-        <v>392</v>
+        <v>19</v>
       </c>
       <c r="C165" s="92" t="s">
-        <v>394</v>
+        <v>34</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="5"/>
       <c r="G165" s="6">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="25">
@@ -7019,29 +7219,29 @@
         <v>21</v>
       </c>
       <c r="B166" s="67" t="s">
+        <v>391</v>
+      </c>
+      <c r="C166" s="92" t="s">
         <v>393</v>
       </c>
-      <c r="C166" s="92" t="s">
-        <v>395</v>
-      </c>
       <c r="D166" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="5"/>
       <c r="G166" s="6">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="37">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="25">
       <c r="A167" s="85" t="s">
         <v>21</v>
       </c>
       <c r="B167" s="67" t="s">
-        <v>33</v>
+        <v>392</v>
       </c>
       <c r="C167" s="92" t="s">
-        <v>35</v>
+        <v>394</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>444</v>
@@ -7049,49 +7249,47 @@
       <c r="E167" s="6"/>
       <c r="F167" s="5"/>
       <c r="G167" s="6">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="73">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="37">
       <c r="A168" s="85" t="s">
         <v>21</v>
       </c>
       <c r="B168" s="67" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C168" s="92" t="s">
-        <v>361</v>
+        <v>35</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E168" s="15" t="s">
-        <v>448</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="E168" s="6"/>
       <c r="F168" s="5"/>
       <c r="G168" s="6">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="25">
-      <c r="A169" s="86" t="s">
-        <v>349</v>
-      </c>
-      <c r="B169" s="71" t="s">
-        <v>7</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="91">
+      <c r="A169" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" s="67" t="s">
+        <v>14</v>
       </c>
       <c r="C169" s="92" t="s">
-        <v>350</v>
+        <v>479</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E169" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="F169" s="6"/>
+        <v>444</v>
+      </c>
+      <c r="E169" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="F169" s="5"/>
       <c r="G169" s="6">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="25">
@@ -7099,37 +7297,39 @@
         <v>349</v>
       </c>
       <c r="B170" s="71" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C170" s="92" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E170" s="17"/>
+        <v>444</v>
+      </c>
+      <c r="E170" s="17" t="s">
+        <v>457</v>
+      </c>
       <c r="F170" s="6"/>
       <c r="G170" s="6">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="37">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="25">
       <c r="A171" s="86" t="s">
         <v>349</v>
       </c>
       <c r="B171" s="71" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C171" s="92" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E171" s="6"/>
+        <v>444</v>
+      </c>
+      <c r="E171" s="17"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="37">
@@ -7137,10 +7337,10 @@
         <v>349</v>
       </c>
       <c r="B172" s="71" t="s">
-        <v>351</v>
+        <v>17</v>
       </c>
       <c r="C172" s="92" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>444</v>
@@ -7148,47 +7348,45 @@
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="37">
       <c r="A173" s="86" t="s">
         <v>349</v>
       </c>
-      <c r="B173" s="67" t="s">
-        <v>374</v>
-      </c>
-      <c r="C173" s="100" t="s">
+      <c r="B173" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="C173" s="92" t="s">
         <v>375</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="E173" s="4"/>
-      <c r="F173" s="5"/>
+        <v>443</v>
+      </c>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
       <c r="G173" s="6">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="25">
       <c r="A174" s="86" t="s">
         <v>349</v>
       </c>
-      <c r="B174" s="71" t="s">
-        <v>352</v>
-      </c>
-      <c r="C174" s="92" t="s">
-        <v>353</v>
+      <c r="B174" s="67" t="s">
+        <v>373</v>
+      </c>
+      <c r="C174" s="100" t="s">
+        <v>374</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E174" s="6"/>
-      <c r="F174" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="E174" s="4"/>
+      <c r="F174" s="5"/>
       <c r="G174" s="6">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="25">
@@ -7196,197 +7394,199 @@
         <v>349</v>
       </c>
       <c r="B175" s="71" t="s">
-        <v>16</v>
+        <v>352</v>
       </c>
       <c r="C175" s="92" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G175" s="6">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="58">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="25">
       <c r="A176" s="86" t="s">
         <v>349</v>
       </c>
       <c r="B176" s="71" t="s">
-        <v>364</v>
+        <v>16</v>
       </c>
       <c r="C176" s="92" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E176" s="15" t="s">
-        <v>449</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="E176" s="6"/>
       <c r="F176" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G176" s="6">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="25">
-      <c r="A177" s="87" t="s">
-        <v>366</v>
-      </c>
-      <c r="B177" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C177" s="102" t="s">
-        <v>369</v>
-      </c>
-      <c r="D177" s="126" t="s">
-        <v>445</v>
-      </c>
-      <c r="E177" s="6"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="58">
+      <c r="A177" s="86" t="s">
+        <v>349</v>
+      </c>
+      <c r="B177" s="71" t="s">
+        <v>363</v>
+      </c>
+      <c r="C177" s="92" t="s">
+        <v>364</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E177" s="15" t="s">
+        <v>448</v>
+      </c>
       <c r="F177" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G177" s="6">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="25">
       <c r="A178" s="87" t="s">
-        <v>366</v>
-      </c>
-      <c r="B178" s="73" t="s">
-        <v>352</v>
+        <v>365</v>
+      </c>
+      <c r="B178" s="72" t="s">
+        <v>16</v>
       </c>
       <c r="C178" s="102" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D178" s="126" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E178" s="6"/>
       <c r="F178" s="6" t="s">
         <v>32</v>
       </c>
       <c r="G178" s="6">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="37">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="25">
       <c r="A179" s="87" t="s">
+        <v>365</v>
+      </c>
+      <c r="B179" s="73" t="s">
+        <v>352</v>
+      </c>
+      <c r="C179" s="102" t="s">
         <v>366</v>
       </c>
-      <c r="B179" s="72" t="s">
+      <c r="D179" s="126" t="s">
+        <v>444</v>
+      </c>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G179" s="6">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="37">
+      <c r="A180" s="87" t="s">
+        <v>365</v>
+      </c>
+      <c r="B180" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C179" s="92" t="s">
-        <v>370</v>
-      </c>
-      <c r="D179" s="126" t="s">
-        <v>445</v>
-      </c>
-      <c r="E179" s="6"/>
-      <c r="F179" s="6"/>
-      <c r="G179" s="6">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="44">
-      <c r="A180" s="87" t="s">
-        <v>366</v>
-      </c>
-      <c r="B180" s="72" t="s">
-        <v>368</v>
-      </c>
-      <c r="C180" s="102" t="s">
-        <v>371</v>
+      <c r="C180" s="92" t="s">
+        <v>369</v>
       </c>
       <c r="D180" s="126" t="s">
-        <v>445</v>
-      </c>
-      <c r="E180" s="15" t="s">
-        <v>389</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="25">
-      <c r="A181" s="88" t="s">
-        <v>390</v>
-      </c>
-      <c r="B181" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="C181" s="103" t="s">
-        <v>369</v>
-      </c>
-      <c r="D181" s="127" t="s">
-        <v>445</v>
-      </c>
-      <c r="E181" s="53"/>
-      <c r="F181" s="53" t="s">
-        <v>32</v>
-      </c>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="44">
+      <c r="A181" s="87" t="s">
+        <v>365</v>
+      </c>
+      <c r="B181" s="72" t="s">
+        <v>367</v>
+      </c>
+      <c r="C181" s="102" t="s">
+        <v>370</v>
+      </c>
+      <c r="D181" s="126" t="s">
+        <v>444</v>
+      </c>
+      <c r="E181" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="F181" s="6"/>
       <c r="G181" s="6">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="25">
       <c r="A182" s="88" t="s">
-        <v>390</v>
-      </c>
-      <c r="B182" s="75" t="s">
-        <v>352</v>
+        <v>389</v>
+      </c>
+      <c r="B182" s="74" t="s">
+        <v>16</v>
       </c>
       <c r="C182" s="103" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D182" s="127" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E182" s="53"/>
       <c r="F182" s="53" t="s">
         <v>32</v>
       </c>
       <c r="G182" s="6">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="37">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="25">
       <c r="A183" s="88" t="s">
-        <v>390</v>
-      </c>
-      <c r="B183" s="74" t="s">
+        <v>389</v>
+      </c>
+      <c r="B183" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="C183" s="103" t="s">
+        <v>366</v>
+      </c>
+      <c r="D183" s="127" t="s">
+        <v>444</v>
+      </c>
+      <c r="E183" s="53"/>
+      <c r="F183" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G183" s="6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="37">
+      <c r="A184" s="88" t="s">
+        <v>389</v>
+      </c>
+      <c r="B184" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C183" s="103" t="s">
-        <v>370</v>
-      </c>
-      <c r="D183" s="127" t="s">
-        <v>445</v>
-      </c>
-      <c r="E183" s="53"/>
-      <c r="F183" s="53"/>
-      <c r="G183" s="6">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="25">
-      <c r="A184" s="88" t="s">
-        <v>390</v>
-      </c>
-      <c r="B184" s="74" t="s">
-        <v>351</v>
-      </c>
       <c r="C184" s="103" t="s">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="D184" s="127" t="s">
         <v>444</v>
@@ -7394,256 +7594,256 @@
       <c r="E184" s="53"/>
       <c r="F184" s="53"/>
       <c r="G184" s="6">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="44">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="25">
       <c r="A185" s="88" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B185" s="74" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C185" s="103" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="D185" s="127" t="s">
-        <v>445</v>
-      </c>
-      <c r="E185" s="54" t="s">
-        <v>412</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="E185" s="53"/>
       <c r="F185" s="53"/>
       <c r="G185" s="6">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="25">
-      <c r="A186" s="89" t="s">
-        <v>372</v>
-      </c>
-      <c r="B186" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C186" s="104" t="s">
-        <v>388</v>
-      </c>
-      <c r="D186" s="128" t="s">
-        <v>445</v>
-      </c>
-      <c r="E186" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="F186" s="6"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="44">
+      <c r="A186" s="88" t="s">
+        <v>389</v>
+      </c>
+      <c r="B186" s="74" t="s">
+        <v>367</v>
+      </c>
+      <c r="C186" s="103" t="s">
+        <v>390</v>
+      </c>
+      <c r="D186" s="127" t="s">
+        <v>444</v>
+      </c>
+      <c r="E186" s="54" t="s">
+        <v>411</v>
+      </c>
+      <c r="F186" s="53"/>
       <c r="G186" s="6">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="25">
       <c r="A187" s="89" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B187" s="76" t="s">
-        <v>377</v>
-      </c>
-      <c r="C187" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="104" t="s">
         <v>387</v>
       </c>
-      <c r="D187" s="129" t="s">
-        <v>444</v>
-      </c>
-      <c r="E187" s="6"/>
+      <c r="D187" s="128" t="s">
+        <v>444</v>
+      </c>
+      <c r="E187" s="17" t="s">
+        <v>457</v>
+      </c>
       <c r="F187" s="6"/>
       <c r="G187" s="6">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="25">
       <c r="A188" s="89" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B188" s="76" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C188" s="92" t="s">
-        <v>378</v>
-      </c>
-      <c r="D188" s="128" t="s">
-        <v>444</v>
+        <v>386</v>
+      </c>
+      <c r="D188" s="129" t="s">
+        <v>443</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="25">
       <c r="A189" s="89" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B189" s="76" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C189" s="92" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D189" s="128" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="37">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="25">
       <c r="A190" s="89" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B190" s="76" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C190" s="92" t="s">
-        <v>384</v>
-      </c>
-      <c r="D190" s="129" t="s">
+        <v>378</v>
+      </c>
+      <c r="D190" s="128" t="s">
         <v>444</v>
       </c>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="37">
       <c r="A191" s="89" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B191" s="76" t="s">
+        <v>381</v>
+      </c>
+      <c r="C191" s="92" t="s">
         <v>383</v>
       </c>
-      <c r="C191" s="92" t="s">
-        <v>385</v>
-      </c>
       <c r="D191" s="129" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="37">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="25">
       <c r="A192" s="89" t="s">
-        <v>372</v>
-      </c>
-      <c r="B192" s="72" t="s">
-        <v>17</v>
+        <v>371</v>
+      </c>
+      <c r="B192" s="76" t="s">
+        <v>382</v>
       </c>
       <c r="C192" s="92" t="s">
-        <v>370</v>
-      </c>
-      <c r="D192" s="126" t="s">
-        <v>445</v>
+        <v>384</v>
+      </c>
+      <c r="D192" s="129" t="s">
+        <v>443</v>
       </c>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="30">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="37">
       <c r="A193" s="89" t="s">
-        <v>372</v>
-      </c>
-      <c r="B193" s="71" t="s">
+        <v>371</v>
+      </c>
+      <c r="B193" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C193" s="92" t="s">
+        <v>369</v>
+      </c>
+      <c r="D193" s="126" t="s">
+        <v>444</v>
+      </c>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="25">
+      <c r="A194" s="89" t="s">
+        <v>371</v>
+      </c>
+      <c r="B194" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C193" s="92" t="s">
-        <v>386</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="E193" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="F193" s="6" t="s">
+      <c r="C194" s="92" t="s">
+        <v>385</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E194" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="F194" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G193" s="6">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="25">
-      <c r="A194" s="88" t="s">
+      <c r="G194" s="6">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="25">
+      <c r="A195" s="88" t="s">
+        <v>395</v>
+      </c>
+      <c r="B195" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="92" t="s">
         <v>396</v>
       </c>
-      <c r="B194" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C194" s="92" t="s">
-        <v>397</v>
-      </c>
-      <c r="D194" s="130" t="s">
-        <v>445</v>
-      </c>
-      <c r="E194" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="F194" s="6"/>
-      <c r="G194" s="6">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="37">
-      <c r="A195" s="88" t="s">
-        <v>396</v>
-      </c>
-      <c r="B195" s="76" t="s">
-        <v>12</v>
-      </c>
-      <c r="C195" s="92" t="s">
-        <v>398</v>
-      </c>
       <c r="D195" s="130" t="s">
-        <v>445</v>
-      </c>
-      <c r="E195" s="6"/>
+        <v>444</v>
+      </c>
+      <c r="E195" s="17" t="s">
+        <v>457</v>
+      </c>
       <c r="F195" s="6"/>
       <c r="G195" s="6">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="37">
       <c r="A196" s="88" t="s">
-        <v>396</v>
-      </c>
-      <c r="B196" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="C196" s="103" t="s">
-        <v>405</v>
+        <v>395</v>
+      </c>
+      <c r="B196" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C196" s="92" t="s">
+        <v>397</v>
       </c>
       <c r="D196" s="130" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="25">
       <c r="A197" s="88" t="s">
-        <v>396</v>
-      </c>
-      <c r="B197" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="C197" s="92" t="s">
-        <v>399</v>
+        <v>395</v>
+      </c>
+      <c r="B197" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C197" s="103" t="s">
+        <v>404</v>
       </c>
       <c r="D197" s="130" t="s">
         <v>444</v>
@@ -7651,37 +7851,37 @@
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="25">
       <c r="A198" s="88" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B198" s="76" t="s">
-        <v>400</v>
+        <v>49</v>
       </c>
       <c r="C198" s="92" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D198" s="130" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="37">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="25">
       <c r="A199" s="88" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B199" s="76" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C199" s="92" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D199" s="130" t="s">
         <v>444</v>
@@ -7689,190 +7889,189 @@
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="6">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="30">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="37">
       <c r="A200" s="88" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B200" s="76" t="s">
-        <v>2</v>
+        <v>401</v>
       </c>
       <c r="C200" s="92" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D200" s="130" t="s">
-        <v>444</v>
-      </c>
-      <c r="E200" s="15" t="s">
-        <v>451</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="107" t="s">
-        <v>414</v>
-      </c>
-      <c r="B201" s="67" t="s">
-        <v>7</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="25">
+      <c r="A201" s="88" t="s">
+        <v>395</v>
+      </c>
+      <c r="B201" s="76" t="s">
+        <v>2</v>
       </c>
       <c r="C201" s="92" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D201" s="130" t="s">
-        <v>445</v>
-      </c>
-      <c r="E201" s="17" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="6">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="107" t="s">
-        <v>414</v>
-      </c>
-      <c r="B202" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="C202" s="103" t="s">
-        <v>425</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="25">
+      <c r="A202" s="88" t="s">
+        <v>395</v>
+      </c>
+      <c r="B202" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202" s="92" t="s">
+        <v>461</v>
       </c>
       <c r="D202" s="130" t="s">
-        <v>445</v>
-      </c>
-      <c r="E202" s="6"/>
+        <v>444</v>
+      </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="91">
-      <c r="A203" s="107" t="s">
-        <v>414</v>
-      </c>
-      <c r="B203" s="67" t="s">
-        <v>416</v>
-      </c>
-      <c r="C203" s="92" t="s">
-        <v>419</v>
-      </c>
-      <c r="D203" s="130" t="s">
-        <v>445</v>
-      </c>
-      <c r="E203" s="6"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="30">
+      <c r="A203" s="137" t="s">
+        <v>395</v>
+      </c>
+      <c r="B203" s="133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C203" s="134" t="s">
+        <v>460</v>
+      </c>
+      <c r="D203" s="135" t="s">
+        <v>444</v>
+      </c>
+      <c r="E203" s="136" t="s">
+        <v>450</v>
+      </c>
       <c r="F203" s="6"/>
       <c r="G203" s="6">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="107" t="s">
-        <v>414</v>
+      <c r="A204" s="108" t="s">
+        <v>419</v>
       </c>
       <c r="B204" s="67" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C204" s="92" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D204" s="130" t="s">
         <v>444</v>
       </c>
-      <c r="E204" s="6"/>
+      <c r="E204" s="17" t="s">
+        <v>457</v>
+      </c>
       <c r="F204" s="6"/>
       <c r="G204" s="6">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="107" t="s">
-        <v>414</v>
-      </c>
-      <c r="B205" s="76" t="s">
-        <v>400</v>
-      </c>
-      <c r="C205" s="92" t="s">
-        <v>401</v>
+      <c r="A205" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="B205" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C205" s="103" t="s">
+        <v>423</v>
       </c>
       <c r="D205" s="130" t="s">
-        <v>445</v>
-      </c>
-      <c r="E205" s="6"/>
-      <c r="F205" s="6"/>
+        <v>444</v>
+      </c>
       <c r="G205" s="6">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="36" customHeight="1">
-      <c r="A206" s="107" t="s">
-        <v>414</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="108" t="s">
+        <v>419</v>
       </c>
       <c r="B206" s="67" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="C206" s="92" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D206" s="130" t="s">
-        <v>444</v>
-      </c>
-      <c r="E206" s="15" t="s">
-        <v>451</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="6">
-        <v>200</v>
+        <v>212</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="108" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B207" s="67" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C207" s="92" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D207" s="130" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" s="6">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="108" t="s">
-        <v>420</v>
-      </c>
-      <c r="B208" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="C208" s="103" t="s">
-        <v>424</v>
+        <v>419</v>
+      </c>
+      <c r="B208" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="92" t="s">
+        <v>461</v>
       </c>
       <c r="D208" s="130" t="s">
-        <v>445</v>
+        <v>444</v>
+      </c>
+      <c r="E208" s="6"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6">
+        <v>214</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="108" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B209" s="67" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C209" s="92" t="s">
-        <v>422</v>
+        <v>460</v>
       </c>
       <c r="D209" s="130" t="s">
         <v>444</v>
@@ -7880,30 +8079,165 @@
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="6">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="108" t="s">
-        <v>420</v>
+      <c r="A210" s="107" t="s">
+        <v>413</v>
       </c>
       <c r="B210" s="67" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C210" s="92" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D210" s="130" t="s">
         <v>444</v>
       </c>
-      <c r="E210" s="6"/>
+      <c r="E210" s="17" t="s">
+        <v>457</v>
+      </c>
       <c r="F210" s="6"/>
       <c r="G210" s="6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="107" t="s">
+        <v>413</v>
+      </c>
+      <c r="B211" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C211" s="103" t="s">
+        <v>424</v>
+      </c>
+      <c r="D211" s="130" t="s">
+        <v>444</v>
+      </c>
+      <c r="E211" s="6"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6">
         <v>203</v>
       </c>
     </row>
+    <row r="212" spans="1:7" ht="91">
+      <c r="A212" s="107" t="s">
+        <v>413</v>
+      </c>
+      <c r="B212" s="67" t="s">
+        <v>415</v>
+      </c>
+      <c r="C212" s="92" t="s">
+        <v>418</v>
+      </c>
+      <c r="D212" s="130" t="s">
+        <v>444</v>
+      </c>
+      <c r="E212" s="6"/>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="107" t="s">
+        <v>413</v>
+      </c>
+      <c r="B213" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C213" s="92" t="s">
+        <v>416</v>
+      </c>
+      <c r="D213" s="130" t="s">
+        <v>443</v>
+      </c>
+      <c r="E213" s="6"/>
+      <c r="F213" s="6"/>
+      <c r="G213" s="6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="107" t="s">
+        <v>413</v>
+      </c>
+      <c r="B214" s="76" t="s">
+        <v>399</v>
+      </c>
+      <c r="C214" s="92" t="s">
+        <v>400</v>
+      </c>
+      <c r="D214" s="130" t="s">
+        <v>444</v>
+      </c>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6"/>
+      <c r="G214" s="6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="36" customHeight="1">
+      <c r="A215" s="107" t="s">
+        <v>413</v>
+      </c>
+      <c r="B215" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C215" s="92" t="s">
+        <v>417</v>
+      </c>
+      <c r="D215" s="130" t="s">
+        <v>443</v>
+      </c>
+      <c r="F215" s="6"/>
+      <c r="G215" s="6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="36" customHeight="1">
+      <c r="A216" s="107" t="s">
+        <v>413</v>
+      </c>
+      <c r="B216" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="92" t="s">
+        <v>461</v>
+      </c>
+      <c r="D216" s="130" t="s">
+        <v>444</v>
+      </c>
+      <c r="F216" s="6"/>
+      <c r="G216" s="6">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="55" customHeight="1">
+      <c r="A217" s="132" t="s">
+        <v>413</v>
+      </c>
+      <c r="B217" s="133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217" s="134" t="s">
+        <v>460</v>
+      </c>
+      <c r="D217" s="135" t="s">
+        <v>444</v>
+      </c>
+      <c r="E217" s="136" t="s">
+        <v>478</v>
+      </c>
+      <c r="F217" s="6"/>
+      <c r="G217" s="6">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G210"/>
+  <autoFilter ref="A1:G217"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
@@ -7944,10 +8278,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -7955,10 +8289,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7966,10 +8300,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7977,10 +8311,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -7988,10 +8322,10 @@
         <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7999,10 +8333,10 @@
         <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -8019,8 +8353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:X1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8179,10 +8513,10 @@
         <v>114</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F1" s="67" t="s">
         <v>23</v>
@@ -8197,7 +8531,7 @@
         <v>2</v>
       </c>
       <c r="J1" s="67" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K1" s="67" t="s">
         <v>9</v>
@@ -8221,10 +8555,10 @@
         <v>19</v>
       </c>
       <c r="R1" s="67" t="s">
+        <v>391</v>
+      </c>
+      <c r="S1" s="67" t="s">
         <v>392</v>
-      </c>
-      <c r="S1" s="67" t="s">
-        <v>393</v>
       </c>
       <c r="T1" s="67" t="s">
         <v>33</v>
@@ -8236,6 +8570,447 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="7" max="8" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18">
+      <c r="A1" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>399</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>401</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6">
+        <v>99</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6">
+        <v>3</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
+        <v>4</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6">
+        <v>5</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
+        <v>6</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6">
+        <v>3</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <v>7</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18">
+      <c r="A1" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="139" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18">
+      <c r="A1" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>399</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="G2" s="6">
+        <v>99</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="G5" s="6">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8415,7 +9190,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>85</v>
@@ -9452,10 +10227,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9466,8 +10241,8 @@
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
     <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
@@ -9536,8 +10311,37 @@
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>464</v>
+      </c>
+      <c r="H3" t="s">
+        <v>465</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/db/excel/sqlite-inovation-manager-ver-1.0.xlsx
+++ b/db/excel/sqlite-inovation-manager-ver-1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14820" tabRatio="500" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="491">
   <si>
     <t>table_name</t>
   </si>
@@ -1509,6 +1509,9 @@
   </si>
   <si>
     <t>Động lực làm việc</t>
+  </si>
+  <si>
+    <t>default 0</t>
   </si>
 </sst>
 </file>
@@ -1939,9 +1942,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="160">
+  <cellStyleXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2438,7 +2443,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="160">
+  <cellStyles count="162">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -2519,6 +2524,7 @@
     <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2598,6 +2604,7 @@
     <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3005,8 +3012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK217"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="C157" sqref="C157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -7208,7 +7215,9 @@
       <c r="D165" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="E165" s="6"/>
+      <c r="E165" s="6" t="s">
+        <v>490</v>
+      </c>
       <c r="F165" s="5"/>
       <c r="G165" s="6">
         <v>163</v>
@@ -7227,7 +7236,9 @@
       <c r="D166" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="E166" s="6"/>
+      <c r="E166" s="6" t="s">
+        <v>490</v>
+      </c>
       <c r="F166" s="5"/>
       <c r="G166" s="6">
         <v>164</v>
@@ -7246,7 +7257,9 @@
       <c r="D167" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="E167" s="6"/>
+      <c r="E167" s="6" t="s">
+        <v>490</v>
+      </c>
       <c r="F167" s="5"/>
       <c r="G167" s="6">
         <v>165</v>
@@ -8582,7 +8595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/db/excel/sqlite-inovation-manager-ver-1.0.xlsx
+++ b/db/excel/sqlite-inovation-manager-ver-1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="14820" tabRatio="500" firstSheet="9"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="ideas_statuses" sheetId="20" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$G$207</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$G$208</definedName>
   </definedNames>
   <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="493">
   <si>
     <t>table_name</t>
   </si>
@@ -134,9 +134,6 @@
     <t>thời gian tác động thay đổi, chỉnh sửa bởi người đề xuất</t>
   </si>
   <si>
-    <t>đối tượng json ghi các user nào đã voted cho ý tưởng này</t>
-  </si>
-  <si>
     <t>INDEX</t>
   </si>
   <si>
@@ -1097,9 +1094,6 @@
     <t>content</t>
   </si>
   <si>
-    <t>ideas_id</t>
-  </si>
-  <si>
     <t>Mã ý tưởng liên quan</t>
   </si>
   <si>
@@ -1205,9 +1199,6 @@
     <t>Mã tổi chức attach file duy nhất</t>
   </si>
   <si>
-    <t xml:space="preserve">, UNIQUE(user_id, ideas_id),  FOREIGN KEY (ideas_id) REFERENCES ideas(id) ,  FOREIGN KEY (user_id) REFERENCES users(id) </t>
-  </si>
-  <si>
     <t>ideas_shares</t>
   </si>
   <si>
@@ -1274,9 +1265,6 @@
     <t>Nội dung người share gõ vào ở đây</t>
   </si>
   <si>
-    <t xml:space="preserve">default 2, UNIQUE(user_id, ideas_id),  FOREIGN KEY (ideas_id) REFERENCES ideas(id) ,  FOREIGN KEY (user_id) REFERENCES users(id) </t>
-  </si>
-  <si>
     <t>mã liên kết cấp trên của ý tưởng cha ( ý tường này là ý tưởng con của ý tưởng chính)</t>
   </si>
   <si>
@@ -1385,9 +1373,6 @@
     <t xml:space="preserve">, FOREIGN KEY (organization_id) REFERENCES organizations(id) , FOREIGN KEY (parent_id) REFERENCES ideas(id) , FOREIGN KEY (user_id) REFERENCES users(id) </t>
   </si>
   <si>
-    <t xml:space="preserve">, FOREIGN KEY (parent_id) REFERENCES ideas_comments(id) , FOREIGN KEY (ideas_id) REFERENCES ideas(id) , FOREIGN KEY (merge_id) REFERENCES ideas(id) ,  FOREIGN KEY (user_id) REFERENCES users(id) </t>
-  </si>
-  <si>
     <t xml:space="preserve">,  FOREIGN KEY (user_id) REFERENCES users(id) </t>
   </si>
   <si>
@@ -1512,6 +1497,27 @@
   </si>
   <si>
     <t>default 0</t>
+  </si>
+  <si>
+    <t>idea_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, FOREIGN KEY (parent_id) REFERENCES ideas_comments(id) , FOREIGN KEY (idea_id) REFERENCES ideas(id) , FOREIGN KEY (merge_id) REFERENCES ideas(id) ,  FOREIGN KEY (user_id) REFERENCES users(id) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">default 2, UNIQUE(user_id, idea_id),  FOREIGN KEY (idea_id) REFERENCES ideas(id) ,  FOREIGN KEY (user_id) REFERENCES users(id) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">, UNIQUE(user_id, idea_id),  FOREIGN KEY (idea_id) REFERENCES ideas(id) ,  FOREIGN KEY (user_id) REFERENCES users(id) </t>
+  </si>
+  <si>
+    <t>commented_users</t>
+  </si>
+  <si>
+    <t>đối tượng json ghi các user nào đã comment cho ý tưởng này [1,2,3]</t>
+  </si>
+  <si>
+    <t>đối tượng json ghi các user nào đã voted cho ý tưởng này [1,2,3]</t>
   </si>
 </sst>
 </file>
@@ -1942,9 +1948,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="162">
+  <cellStyleXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2443,7 +2453,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="162">
+  <cellStyles count="166">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -2525,6 +2535,8 @@
     <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2605,6 +2617,8 @@
     <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3010,10 +3024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK217"/>
+  <dimension ref="A1:AMK218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -4071,20 +4085,20 @@
     </row>
     <row r="2" spans="1:1025">
       <c r="A2" s="78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="56" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="113" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="6">
         <v>1</v>
@@ -4092,16 +4106,16 @@
     </row>
     <row r="3" spans="1:1025">
       <c r="A3" s="78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="56" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="113" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
@@ -4111,16 +4125,16 @@
     </row>
     <row r="4" spans="1:1025" ht="36">
       <c r="A4" s="78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="56" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="113" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
@@ -4130,16 +4144,16 @@
     </row>
     <row r="5" spans="1:1025" ht="36">
       <c r="A5" s="78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="113" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
@@ -4149,16 +4163,16 @@
     </row>
     <row r="6" spans="1:1025" ht="72">
       <c r="A6" s="78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="56" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D6" s="113" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
@@ -4168,16 +4182,16 @@
     </row>
     <row r="7" spans="1:1025" ht="36">
       <c r="A7" s="78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="56" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="113" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
@@ -4187,19 +4201,19 @@
     </row>
     <row r="8" spans="1:1025">
       <c r="A8" s="78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="114" t="s">
+        <v>440</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="D8" s="114" t="s">
-        <v>444</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>44</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="6">
@@ -4208,19 +4222,19 @@
     </row>
     <row r="9" spans="1:1025" ht="36">
       <c r="A9" s="79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="115" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="6">
@@ -4229,16 +4243,16 @@
     </row>
     <row r="10" spans="1:1025">
       <c r="A10" s="79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="92" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="6"/>
@@ -4248,16 +4262,16 @@
     </row>
     <row r="11" spans="1:1025">
       <c r="A11" s="79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="61" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="6"/>
@@ -4267,16 +4281,16 @@
     </row>
     <row r="12" spans="1:1025">
       <c r="A12" s="79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="92" t="s">
-        <v>50</v>
-      </c>
       <c r="D12" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="6"/>
@@ -4286,16 +4300,16 @@
     </row>
     <row r="13" spans="1:1025">
       <c r="A13" s="79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="92" t="s">
-        <v>52</v>
-      </c>
       <c r="D13" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="6"/>
@@ -4305,16 +4319,16 @@
     </row>
     <row r="14" spans="1:1025">
       <c r="A14" s="79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="61" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="92" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="6"/>
@@ -4324,16 +4338,16 @@
     </row>
     <row r="15" spans="1:1025">
       <c r="A15" s="79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="6"/>
@@ -4343,16 +4357,16 @@
     </row>
     <row r="16" spans="1:1025">
       <c r="A16" s="79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="6"/>
@@ -4362,16 +4376,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="6"/>
@@ -4381,16 +4395,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="92" t="s">
-        <v>58</v>
-      </c>
       <c r="D18" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="6"/>
@@ -4400,16 +4414,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="114" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="6"/>
@@ -4419,19 +4433,19 @@
     </row>
     <row r="20" spans="1:7" ht="28">
       <c r="A20" s="79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="117" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="6">
@@ -4440,19 +4454,19 @@
     </row>
     <row r="21" spans="1:7" ht="54">
       <c r="A21" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="118" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="6">
@@ -4461,16 +4475,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="95" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="119" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="6"/>
@@ -4480,16 +4494,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="95" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="119" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="6"/>
@@ -4499,16 +4513,16 @@
     </row>
     <row r="24" spans="1:7" ht="36">
       <c r="A24" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="95" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="119" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="6"/>
@@ -4518,16 +4532,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="114" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="6"/>
@@ -4537,16 +4551,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C26" s="95" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="119" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="6"/>
@@ -4556,19 +4570,19 @@
     </row>
     <row r="27" spans="1:7" ht="36">
       <c r="A27" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="95" t="s">
+      <c r="D27" s="119" t="s">
+        <v>440</v>
+      </c>
+      <c r="E27" s="26" t="s">
         <v>68</v>
-      </c>
-      <c r="D27" s="119" t="s">
-        <v>444</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>69</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6">
@@ -4577,16 +4591,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="95" t="s">
-        <v>71</v>
-      </c>
       <c r="D28" s="119" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="6"/>
@@ -4596,16 +4610,16 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="95" t="s">
-        <v>73</v>
-      </c>
       <c r="D29" s="119" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="6"/>
@@ -4615,16 +4629,16 @@
     </row>
     <row r="30" spans="1:7" ht="36">
       <c r="A30" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" s="119" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="6"/>
@@ -4634,16 +4648,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="95" t="s">
-        <v>76</v>
-      </c>
       <c r="D31" s="119" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="6"/>
@@ -4653,16 +4667,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" s="119" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="6"/>
@@ -4672,16 +4686,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D33" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="6"/>
@@ -4691,16 +4705,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C34" s="92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D34" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="6"/>
@@ -4710,16 +4724,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="6"/>
@@ -4729,16 +4743,16 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="6"/>
@@ -4748,19 +4762,19 @@
     </row>
     <row r="37" spans="1:7" ht="28">
       <c r="A37" s="80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D37" s="117" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="6">
@@ -4769,19 +4783,19 @@
     </row>
     <row r="38" spans="1:7" ht="36">
       <c r="A38" s="81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D38" s="118" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="6">
@@ -4790,16 +4804,16 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C39" s="93" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D39" s="118" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="18"/>
@@ -4809,16 +4823,16 @@
     </row>
     <row r="40" spans="1:7" ht="54">
       <c r="A40" s="81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="92" t="s">
-        <v>86</v>
-      </c>
       <c r="D40" s="119" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E40" s="26"/>
       <c r="F40" s="6"/>
@@ -4828,16 +4842,16 @@
     </row>
     <row r="41" spans="1:7" ht="36">
       <c r="A41" s="81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D41" s="119" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="6"/>
@@ -4847,16 +4861,16 @@
     </row>
     <row r="42" spans="1:7" ht="90">
       <c r="A42" s="81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B42" s="62" t="s">
         <v>2</v>
       </c>
       <c r="C42" s="92" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D42" s="119" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="6"/>
@@ -4866,16 +4880,16 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" s="62" t="s">
         <v>17</v>
       </c>
       <c r="C43" s="92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" s="119" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="6"/>
@@ -4885,16 +4899,16 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C44" s="92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44" s="119" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="6"/>
@@ -4904,16 +4918,16 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C45" s="92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" s="114" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="6"/>
@@ -4923,19 +4937,19 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D46" s="117" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="6">
@@ -4944,19 +4958,19 @@
     </row>
     <row r="47" spans="1:7" ht="54">
       <c r="A47" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" s="63" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D47" s="115" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="6">
@@ -4965,16 +4979,16 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="33"/>
@@ -4984,16 +4998,16 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="97" t="s">
-        <v>94</v>
-      </c>
       <c r="D49" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="33"/>
@@ -5003,16 +5017,16 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="97" t="s">
-        <v>96</v>
-      </c>
       <c r="D50" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="33"/>
@@ -5022,16 +5036,16 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51" s="64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="97" t="s">
-        <v>98</v>
-      </c>
       <c r="D51" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="33"/>
@@ -5041,16 +5055,16 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B52" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="97" t="s">
-        <v>100</v>
-      </c>
       <c r="D52" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="33"/>
@@ -5060,16 +5074,16 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B53" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C53" s="97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D53" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="33"/>
@@ -5079,16 +5093,16 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54" s="64" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D54" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="33"/>
@@ -5098,16 +5112,16 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B55" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="65" t="s">
-        <v>104</v>
-      </c>
       <c r="D55" s="120" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="33"/>
@@ -5117,16 +5131,16 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B56" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="65" t="s">
-        <v>106</v>
-      </c>
       <c r="D56" s="120" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E56" s="32"/>
       <c r="F56" s="33"/>
@@ -5136,16 +5150,16 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B57" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C57" s="97" t="s">
-        <v>108</v>
-      </c>
       <c r="D57" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E57" s="32"/>
       <c r="F57" s="33"/>
@@ -5155,16 +5169,16 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B58" s="64" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="97" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D58" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E58" s="32"/>
       <c r="F58" s="33"/>
@@ -5174,16 +5188,16 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B59" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C59" s="92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D59" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="6"/>
@@ -5193,16 +5207,16 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C60" s="92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D60" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="6"/>
@@ -5212,16 +5226,16 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B61" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C61" s="92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D61" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="6"/>
@@ -5231,16 +5245,16 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" s="92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D62" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="6"/>
@@ -5250,16 +5264,16 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D63" s="114" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="33"/>
@@ -5269,19 +5283,19 @@
     </row>
     <row r="64" spans="1:7" ht="42">
       <c r="A64" s="78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B64" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C64" s="98" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D64" s="117" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="6">
@@ -5290,16 +5304,16 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B65" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="94" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D65" s="117" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E65" s="37"/>
       <c r="F65" s="25"/>
@@ -5309,16 +5323,16 @@
     </row>
     <row r="66" spans="1:7" ht="36">
       <c r="A66" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C66" s="94" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D66" s="117" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E66" s="37"/>
       <c r="F66" s="25"/>
@@ -5328,16 +5342,16 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="109" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B67" s="28" t="s">
         <v>2</v>
       </c>
       <c r="C67" s="94" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D67" s="117" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E67" s="37"/>
       <c r="F67" s="25"/>
@@ -5347,19 +5361,19 @@
     </row>
     <row r="68" spans="1:7" ht="54">
       <c r="A68" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B68" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="93" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D68" s="115" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="6">
@@ -5368,16 +5382,16 @@
     </row>
     <row r="69" spans="1:7" ht="36">
       <c r="A69" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B69" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="C69" s="95" t="s">
-        <v>115</v>
-      </c>
       <c r="D69" s="121" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E69" s="39"/>
       <c r="F69" s="40"/>
@@ -5387,16 +5401,16 @@
     </row>
     <row r="70" spans="1:7" ht="72">
       <c r="A70" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B70" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="C70" s="95" t="s">
-        <v>117</v>
-      </c>
       <c r="D70" s="121" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E70" s="39"/>
       <c r="F70" s="40"/>
@@ -5406,16 +5420,16 @@
     </row>
     <row r="71" spans="1:7" ht="36">
       <c r="A71" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B71" s="41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C71" s="92" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D71" s="121" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E71" s="42"/>
       <c r="F71" s="43"/>
@@ -5425,16 +5439,16 @@
     </row>
     <row r="72" spans="1:7" ht="36">
       <c r="A72" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B72" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" s="92" t="s">
         <v>119</v>
       </c>
-      <c r="C72" s="92" t="s">
-        <v>120</v>
-      </c>
       <c r="D72" s="121" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E72" s="42"/>
       <c r="F72" s="43"/>
@@ -5444,16 +5458,16 @@
     </row>
     <row r="73" spans="1:7" ht="72">
       <c r="A73" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B73" s="41" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C73" s="92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D73" s="121" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E73" s="42"/>
       <c r="F73" s="43"/>
@@ -5463,16 +5477,16 @@
     </row>
     <row r="74" spans="1:7" ht="36">
       <c r="A74" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B74" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="C74" s="92" t="s">
-        <v>124</v>
-      </c>
       <c r="D74" s="121" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="40"/>
@@ -5482,16 +5496,16 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B75" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C75" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="C75" s="92" t="s">
-        <v>126</v>
-      </c>
       <c r="D75" s="121" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="40"/>
@@ -5501,16 +5515,16 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B76" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="C76" s="92" t="s">
-        <v>128</v>
-      </c>
       <c r="D76" s="121" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E76" s="39"/>
       <c r="F76" s="40"/>
@@ -5520,20 +5534,20 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B77" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="C77" s="92" t="s">
-        <v>130</v>
-      </c>
       <c r="D77" s="121" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E77" s="39"/>
       <c r="F77" s="40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G77" s="6">
         <v>76</v>
@@ -5541,16 +5555,16 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B78" s="41" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C78" s="92" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D78" s="121" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E78" s="39"/>
       <c r="F78" s="40"/>
@@ -5560,16 +5574,16 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B79" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C79" s="92" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D79" s="121" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E79" s="39"/>
       <c r="F79" s="40"/>
@@ -5579,16 +5593,16 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B80" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C80" s="92" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D80" s="121" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E80" s="39"/>
       <c r="F80" s="40"/>
@@ -5598,19 +5612,19 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B81" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C81" s="92" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D81" s="122" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E81" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F81" s="40"/>
       <c r="G81" s="6">
@@ -5619,16 +5633,16 @@
     </row>
     <row r="82" spans="1:7" ht="36">
       <c r="A82" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B82" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D82" s="122" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E82" s="39"/>
       <c r="F82" s="40"/>
@@ -5638,16 +5652,16 @@
     </row>
     <row r="83" spans="1:7" ht="36">
       <c r="A83" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B83" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C83" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="C83" s="92" t="s">
-        <v>136</v>
-      </c>
       <c r="D83" s="122" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E83" s="39"/>
       <c r="F83" s="40"/>
@@ -5657,16 +5671,16 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B84" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="C84" s="92" t="s">
-        <v>138</v>
-      </c>
       <c r="D84" s="121" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="6"/>
@@ -5676,16 +5690,16 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B85" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" s="92" t="s">
         <v>139</v>
       </c>
-      <c r="C85" s="92" t="s">
-        <v>140</v>
-      </c>
       <c r="D85" s="121" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="6"/>
@@ -5695,16 +5709,16 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B86" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C86" s="92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D86" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="6"/>
@@ -5714,16 +5728,16 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C87" s="92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D87" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="6"/>
@@ -5733,16 +5747,16 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B88" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C88" s="92" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D88" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="6"/>
@@ -5752,16 +5766,16 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C89" s="92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D89" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="6"/>
@@ -5771,16 +5785,16 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B90" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="C90" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="C90" s="92" t="s">
-        <v>143</v>
-      </c>
       <c r="D90" s="122" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="6"/>
@@ -5790,16 +5804,16 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B91" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="C91" s="92" t="s">
         <v>144</v>
       </c>
-      <c r="C91" s="92" t="s">
-        <v>145</v>
-      </c>
       <c r="D91" s="122" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="6"/>
@@ -5809,19 +5823,19 @@
     </row>
     <row r="92" spans="1:7" ht="54">
       <c r="A92" s="79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B92" s="110" t="s">
         <v>14</v>
       </c>
       <c r="C92" s="111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D92" s="123" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E92" s="112" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F92" s="25"/>
       <c r="G92" s="6">
@@ -5830,17 +5844,17 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B93" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="94"/>
       <c r="D93" s="115" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E93" s="51" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F93" s="25"/>
       <c r="G93" s="6">
@@ -5849,14 +5863,14 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B94" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C94" s="94"/>
       <c r="D94" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E94" s="37"/>
       <c r="F94" s="25"/>
@@ -5866,14 +5880,14 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B95" s="44" t="s">
         <v>2</v>
       </c>
       <c r="C95" s="94"/>
       <c r="D95" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E95" s="37"/>
       <c r="F95" s="25"/>
@@ -5883,14 +5897,14 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="B96" s="44" t="s">
         <v>147</v>
-      </c>
-      <c r="B96" s="44" t="s">
-        <v>148</v>
       </c>
       <c r="C96" s="94"/>
       <c r="D96" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E96" s="37"/>
       <c r="F96" s="25"/>
@@ -5900,14 +5914,14 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B97" s="44" t="s">
         <v>17</v>
       </c>
       <c r="C97" s="94"/>
       <c r="D97" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E97" s="37"/>
       <c r="F97" s="25"/>
@@ -5917,14 +5931,14 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B98" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C98" s="94"/>
       <c r="D98" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E98" s="37"/>
       <c r="F98" s="25"/>
@@ -5934,14 +5948,14 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B99" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C99" s="94"/>
       <c r="D99" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E99" s="37"/>
       <c r="F99" s="25"/>
@@ -5951,17 +5965,17 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B100" s="44" t="s">
         <v>14</v>
       </c>
       <c r="C100" s="94"/>
       <c r="D100" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E100" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F100" s="25"/>
       <c r="G100" s="6">
@@ -5970,16 +5984,16 @@
     </row>
     <row r="101" spans="1:7" ht="54">
       <c r="A101" s="83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B101" s="19" t="s">
         <v>16</v>
       </c>
       <c r="C101" s="99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D101" s="124" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E101" s="46"/>
       <c r="F101" s="6"/>
@@ -5989,16 +6003,16 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B102" s="66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C102" s="99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E102" s="46"/>
       <c r="F102" s="6"/>
@@ -6008,16 +6022,16 @@
     </row>
     <row r="103" spans="1:7" ht="54">
       <c r="A103" s="83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B103" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C103" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="C103" s="99" t="s">
-        <v>153</v>
-      </c>
       <c r="D103" s="124" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E103" s="46"/>
       <c r="F103" s="6"/>
@@ -6027,16 +6041,16 @@
     </row>
     <row r="104" spans="1:7" ht="54">
       <c r="A104" s="83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B104" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C104" s="95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D104" s="124" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E104" s="46"/>
       <c r="F104" s="6"/>
@@ -6046,16 +6060,16 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B105" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C105" s="92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D105" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="6"/>
@@ -6065,16 +6079,16 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C106" s="92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D106" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="6"/>
@@ -6084,16 +6098,16 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C107" s="92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D107" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="6"/>
@@ -6103,16 +6117,16 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C108" s="92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D108" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="6"/>
@@ -6122,19 +6136,19 @@
     </row>
     <row r="109" spans="1:7" ht="48">
       <c r="A109" s="83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B109" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C109" s="94" t="s">
+        <v>154</v>
+      </c>
+      <c r="D109" s="117" t="s">
+        <v>440</v>
+      </c>
+      <c r="E109" s="47" t="s">
         <v>155</v>
-      </c>
-      <c r="D109" s="117" t="s">
-        <v>444</v>
-      </c>
-      <c r="E109" s="47" t="s">
-        <v>156</v>
       </c>
       <c r="F109" s="25"/>
       <c r="G109" s="6">
@@ -6143,19 +6157,19 @@
     </row>
     <row r="110" spans="1:7" ht="54">
       <c r="A110" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B110" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C110" s="93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D110" s="115" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E110" s="51" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F110" s="18"/>
       <c r="G110" s="6">
@@ -6164,16 +6178,16 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B111" s="48" t="s">
         <v>12</v>
       </c>
       <c r="C111" s="92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D111" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="6"/>
@@ -6183,16 +6197,16 @@
     </row>
     <row r="112" spans="1:7" ht="72">
       <c r="A112" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112" s="97" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D112" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="6"/>
@@ -6202,16 +6216,16 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B113" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C113" s="92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D113" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="6"/>
@@ -6221,16 +6235,16 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B114" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C114" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="C114" s="97" t="s">
-        <v>96</v>
-      </c>
       <c r="D114" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="6"/>
@@ -6240,16 +6254,16 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B115" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C115" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="C115" s="97" t="s">
-        <v>98</v>
-      </c>
       <c r="D115" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="6"/>
@@ -6259,16 +6273,16 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B116" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C116" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="C116" s="97" t="s">
-        <v>100</v>
-      </c>
       <c r="D116" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="6"/>
@@ -6278,16 +6292,16 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B117" s="48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C117" s="97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D117" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="6"/>
@@ -6297,16 +6311,16 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B118" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C118" s="97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D118" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="6"/>
@@ -6316,16 +6330,16 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B119" s="48" t="s">
         <v>2</v>
       </c>
       <c r="C119" s="97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D119" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="6"/>
@@ -6335,16 +6349,16 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B120" s="48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C120" s="97" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D120" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="6"/>
@@ -6354,16 +6368,16 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B121" s="48" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="97" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D121" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="6"/>
@@ -6373,16 +6387,16 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B122" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C122" s="92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D122" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="6"/>
@@ -6392,16 +6406,16 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C123" s="92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D123" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="6"/>
@@ -6411,16 +6425,16 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C124" s="92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D124" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="6"/>
@@ -6430,16 +6444,16 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C125" s="92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D125" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="6"/>
@@ -6449,16 +6463,16 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C126" s="92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D126" s="114" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="6"/>
@@ -6468,19 +6482,19 @@
     </row>
     <row r="127" spans="1:7" ht="28">
       <c r="A127" s="84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B127" s="28" t="s">
         <v>14</v>
       </c>
       <c r="C127" s="94" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D127" s="117" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E127" s="24" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F127" s="25"/>
       <c r="G127" s="6">
@@ -6489,19 +6503,19 @@
     </row>
     <row r="128" spans="1:7" ht="54">
       <c r="A128" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B128" s="55" t="s">
         <v>7</v>
       </c>
       <c r="C128" s="93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D128" s="118" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E128" s="51" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F128" s="18"/>
       <c r="G128" s="6">
@@ -6510,16 +6524,16 @@
     </row>
     <row r="129" spans="1:7" ht="36">
       <c r="A129" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B129" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="C129" s="97" t="s">
         <v>170</v>
       </c>
-      <c r="C129" s="97" t="s">
-        <v>171</v>
-      </c>
       <c r="D129" s="125" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E129" s="49"/>
       <c r="F129" s="13"/>
@@ -6529,16 +6543,16 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B130" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C130" s="97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D130" s="125" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E130" s="50"/>
       <c r="F130" s="13"/>
@@ -6548,16 +6562,16 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B131" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="C131" s="97" t="s">
         <v>173</v>
       </c>
-      <c r="C131" s="97" t="s">
-        <v>174</v>
-      </c>
       <c r="D131" s="125" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E131" s="50"/>
       <c r="F131" s="13"/>
@@ -6567,16 +6581,16 @@
     </row>
     <row r="132" spans="1:7" ht="36">
       <c r="A132" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B132" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="C132" s="97" t="s">
         <v>175</v>
       </c>
-      <c r="C132" s="97" t="s">
-        <v>176</v>
-      </c>
       <c r="D132" s="125" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E132" s="50"/>
       <c r="F132" s="13"/>
@@ -6586,16 +6600,16 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B133" s="56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C133" s="97" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D133" s="125" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E133" s="50"/>
       <c r="F133" s="13"/>
@@ -6605,16 +6619,16 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B134" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="C134" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="C134" s="97" t="s">
-        <v>179</v>
-      </c>
       <c r="D134" s="125" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E134" s="50"/>
       <c r="F134" s="13"/>
@@ -6624,16 +6638,16 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B135" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="C135" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="C135" s="97" t="s">
-        <v>181</v>
-      </c>
       <c r="D135" s="125" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E135" s="50"/>
       <c r="F135" s="13"/>
@@ -6643,16 +6657,16 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B136" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="C136" s="97" t="s">
         <v>182</v>
       </c>
-      <c r="C136" s="97" t="s">
-        <v>183</v>
-      </c>
       <c r="D136" s="125" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E136" s="50"/>
       <c r="F136" s="13"/>
@@ -6662,16 +6676,16 @@
     </row>
     <row r="137" spans="1:7" ht="36">
       <c r="A137" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B137" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C137" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="C137" s="97" t="s">
-        <v>185</v>
-      </c>
       <c r="D137" s="125" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E137" s="50"/>
       <c r="F137" s="13"/>
@@ -6681,16 +6695,16 @@
     </row>
     <row r="138" spans="1:7" ht="72">
       <c r="A138" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B138" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C138" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="C138" s="97" t="s">
-        <v>187</v>
-      </c>
       <c r="D138" s="125" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E138" s="50"/>
       <c r="F138" s="13"/>
@@ -6700,16 +6714,16 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B139" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C139" s="97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D139" s="125" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E139" s="50"/>
       <c r="F139" s="13"/>
@@ -6719,16 +6733,16 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B140" s="56" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="97" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D140" s="125" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E140" s="50"/>
       <c r="F140" s="13"/>
@@ -6738,16 +6752,16 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B141" s="58" t="s">
         <v>17</v>
       </c>
       <c r="C141" s="92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D141" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="6"/>
@@ -6757,16 +6771,16 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B142" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C142" s="92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D142" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="6"/>
@@ -6776,16 +6790,16 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B143" s="58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C143" s="92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D143" s="116" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E143" s="20"/>
       <c r="F143" s="6"/>
@@ -6795,16 +6809,16 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B144" s="58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C144" s="92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D144" s="116" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="6"/>
@@ -6814,16 +6828,16 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B145" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="C145" s="97" t="s">
         <v>190</v>
       </c>
-      <c r="C145" s="97" t="s">
-        <v>191</v>
-      </c>
       <c r="D145" s="125" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E145" s="50"/>
       <c r="F145" s="13"/>
@@ -6833,16 +6847,16 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B146" s="59" t="s">
         <v>6</v>
       </c>
       <c r="C146" s="92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D146" s="114" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E146" s="50"/>
       <c r="F146" s="13"/>
@@ -6852,19 +6866,19 @@
     </row>
     <row r="147" spans="1:7" ht="42">
       <c r="A147" s="78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B147" s="60" t="s">
         <v>14</v>
       </c>
       <c r="C147" s="94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D147" s="117" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E147" s="24" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F147" s="25"/>
       <c r="G147" s="6">
@@ -6882,10 +6896,10 @@
         <v>22</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="6">
@@ -6900,10 +6914,10 @@
         <v>12</v>
       </c>
       <c r="C149" s="100" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="5"/>
@@ -6916,13 +6930,13 @@
         <v>21</v>
       </c>
       <c r="B150" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C150" s="101" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="5"/>
@@ -6935,13 +6949,13 @@
         <v>21</v>
       </c>
       <c r="B151" s="68" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C151" s="101" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="5"/>
@@ -6954,13 +6968,13 @@
         <v>21</v>
       </c>
       <c r="B152" s="68" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C152" s="101" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="5"/>
@@ -6976,10 +6990,10 @@
         <v>23</v>
       </c>
       <c r="C153" s="100" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="5"/>
@@ -6998,7 +7012,7 @@
         <v>24</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="5"/>
@@ -7017,7 +7031,7 @@
         <v>25</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="5"/>
@@ -7033,10 +7047,10 @@
         <v>2</v>
       </c>
       <c r="C156" s="100" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="5"/>
@@ -7049,13 +7063,13 @@
         <v>21</v>
       </c>
       <c r="B157" s="67" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C157" s="100" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="5"/>
@@ -7074,7 +7088,7 @@
         <v>26</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E158" s="6"/>
       <c r="F158" s="5"/>
@@ -7093,7 +7107,7 @@
         <v>28</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E159" s="6"/>
       <c r="F159" s="5"/>
@@ -7109,14 +7123,14 @@
         <v>16</v>
       </c>
       <c r="C160" s="95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E160" s="7"/>
       <c r="F160" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G160" s="6">
         <v>159</v>
@@ -7133,11 +7147,11 @@
         <v>29</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E161" s="6"/>
       <c r="F161" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G161" s="6">
         <v>160</v>
@@ -7148,13 +7162,13 @@
         <v>21</v>
       </c>
       <c r="B162" s="70" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C162" s="92" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="5"/>
@@ -7173,17 +7187,17 @@
         <v>30</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G163" s="6">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="25">
+    <row r="164" spans="1:7" ht="37">
       <c r="A164" s="85" t="s">
         <v>21</v>
       </c>
@@ -7191,10 +7205,10 @@
         <v>20</v>
       </c>
       <c r="C164" s="92" t="s">
-        <v>31</v>
+        <v>492</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="5"/>
@@ -7207,41 +7221,39 @@
         <v>21</v>
       </c>
       <c r="B165" s="67" t="s">
-        <v>19</v>
+        <v>490</v>
       </c>
       <c r="C165" s="92" t="s">
-        <v>34</v>
+        <v>491</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>490</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="E165" s="6"/>
       <c r="F165" s="5"/>
       <c r="G165" s="6">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="37">
       <c r="A166" s="85" t="s">
         <v>21</v>
       </c>
       <c r="B166" s="67" t="s">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="C166" s="92" t="s">
-        <v>393</v>
+        <v>33</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="6">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="25">
@@ -7249,1008 +7261,1029 @@
         <v>21</v>
       </c>
       <c r="B167" s="67" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C167" s="92" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="6">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="37">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="25">
       <c r="A168" s="85" t="s">
         <v>21</v>
       </c>
       <c r="B168" s="67" t="s">
-        <v>33</v>
+        <v>389</v>
       </c>
       <c r="C168" s="92" t="s">
-        <v>35</v>
+        <v>391</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E168" s="6"/>
+        <v>440</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>485</v>
+      </c>
       <c r="F168" s="5"/>
       <c r="G168" s="6">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="91">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="37">
       <c r="A169" s="85" t="s">
         <v>21</v>
       </c>
       <c r="B169" s="67" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C169" s="92" t="s">
-        <v>479</v>
+        <v>34</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="E169" s="15" t="s">
-        <v>447</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="E169" s="6"/>
       <c r="F169" s="5"/>
       <c r="G169" s="6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="91">
+      <c r="A170" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C170" s="92" t="s">
+        <v>474</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E170" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="F170" s="5"/>
+      <c r="G170" s="6">
         <v>167</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="25">
-      <c r="A170" s="86" t="s">
-        <v>349</v>
-      </c>
-      <c r="B170" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" s="92" t="s">
-        <v>350</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="E170" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="F170" s="6"/>
-      <c r="G170" s="6">
-        <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="25">
       <c r="A171" s="86" t="s">
+        <v>348</v>
+      </c>
+      <c r="B171" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="92" t="s">
         <v>349</v>
       </c>
-      <c r="B171" s="71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C171" s="92" t="s">
-        <v>361</v>
-      </c>
       <c r="D171" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="E171" s="17"/>
+        <v>440</v>
+      </c>
+      <c r="E171" s="17" t="s">
+        <v>452</v>
+      </c>
       <c r="F171" s="6"/>
       <c r="G171" s="6">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="37">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="25">
       <c r="A172" s="86" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B172" s="71" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C172" s="92" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="E172" s="6"/>
+        <v>440</v>
+      </c>
+      <c r="E172" s="17"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="37">
       <c r="A173" s="86" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B173" s="71" t="s">
-        <v>351</v>
+        <v>17</v>
       </c>
       <c r="C173" s="92" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="37">
+      <c r="A174" s="86" t="s">
+        <v>348</v>
+      </c>
+      <c r="B174" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="C174" s="92" t="s">
+        <v>373</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6">
         <v>171</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="25">
-      <c r="A174" s="86" t="s">
-        <v>349</v>
-      </c>
-      <c r="B174" s="67" t="s">
-        <v>373</v>
-      </c>
-      <c r="C174" s="100" t="s">
-        <v>374</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E174" s="4"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="6">
-        <v>172</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="25">
       <c r="A175" s="86" t="s">
-        <v>349</v>
-      </c>
-      <c r="B175" s="71" t="s">
-        <v>352</v>
-      </c>
-      <c r="C175" s="92" t="s">
-        <v>353</v>
+        <v>348</v>
+      </c>
+      <c r="B175" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="C175" s="100" t="s">
+        <v>372</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="E175" s="6"/>
-      <c r="F175" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="E175" s="4"/>
+      <c r="F175" s="5"/>
       <c r="G175" s="6">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="25">
       <c r="A176" s="86" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B176" s="71" t="s">
-        <v>16</v>
+        <v>486</v>
       </c>
       <c r="C176" s="92" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G176" s="6">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="25">
+      <c r="A177" s="86" t="s">
+        <v>348</v>
+      </c>
+      <c r="B177" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" s="92" t="s">
+        <v>352</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G177" s="6">
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="58">
-      <c r="A177" s="86" t="s">
-        <v>349</v>
-      </c>
-      <c r="B177" s="71" t="s">
-        <v>363</v>
-      </c>
-      <c r="C177" s="92" t="s">
-        <v>364</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="E177" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="F177" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G177" s="6">
+    <row r="178" spans="1:7" ht="58">
+      <c r="A178" s="86" t="s">
+        <v>348</v>
+      </c>
+      <c r="B178" s="71" t="s">
+        <v>361</v>
+      </c>
+      <c r="C178" s="92" t="s">
+        <v>362</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E178" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G178" s="6">
         <v>175</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="25">
-      <c r="A178" s="87" t="s">
-        <v>365</v>
-      </c>
-      <c r="B178" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C178" s="102" t="s">
-        <v>368</v>
-      </c>
-      <c r="D178" s="126" t="s">
-        <v>444</v>
-      </c>
-      <c r="E178" s="6"/>
-      <c r="F178" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G178" s="6">
-        <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="25">
       <c r="A179" s="87" t="s">
-        <v>365</v>
-      </c>
-      <c r="B179" s="73" t="s">
-        <v>352</v>
+        <v>363</v>
+      </c>
+      <c r="B179" s="72" t="s">
+        <v>16</v>
       </c>
       <c r="C179" s="102" t="s">
         <v>366</v>
       </c>
       <c r="D179" s="126" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G179" s="6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="25">
+      <c r="A180" s="87" t="s">
+        <v>363</v>
+      </c>
+      <c r="B180" s="73" t="s">
+        <v>486</v>
+      </c>
+      <c r="C180" s="102" t="s">
+        <v>364</v>
+      </c>
+      <c r="D180" s="126" t="s">
+        <v>440</v>
+      </c>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G180" s="6">
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="37">
-      <c r="A180" s="87" t="s">
-        <v>365</v>
-      </c>
-      <c r="B180" s="72" t="s">
+    <row r="181" spans="1:7" ht="37">
+      <c r="A181" s="87" t="s">
+        <v>363</v>
+      </c>
+      <c r="B181" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C180" s="92" t="s">
-        <v>369</v>
-      </c>
-      <c r="D180" s="126" t="s">
-        <v>444</v>
-      </c>
-      <c r="E180" s="6"/>
-      <c r="F180" s="6"/>
-      <c r="G180" s="6">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="44">
-      <c r="A181" s="87" t="s">
-        <v>365</v>
-      </c>
-      <c r="B181" s="72" t="s">
+      <c r="C181" s="92" t="s">
         <v>367</v>
       </c>
-      <c r="C181" s="102" t="s">
-        <v>370</v>
-      </c>
       <c r="D181" s="126" t="s">
-        <v>444</v>
-      </c>
-      <c r="E181" s="15" t="s">
-        <v>388</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="44">
+      <c r="A182" s="87" t="s">
+        <v>363</v>
+      </c>
+      <c r="B182" s="72" t="s">
+        <v>365</v>
+      </c>
+      <c r="C182" s="102" t="s">
+        <v>368</v>
+      </c>
+      <c r="D182" s="126" t="s">
+        <v>440</v>
+      </c>
+      <c r="E182" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="F182" s="6"/>
+      <c r="G182" s="6">
         <v>179</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="25">
-      <c r="A182" s="88" t="s">
-        <v>389</v>
-      </c>
-      <c r="B182" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="C182" s="103" t="s">
-        <v>368</v>
-      </c>
-      <c r="D182" s="127" t="s">
-        <v>444</v>
-      </c>
-      <c r="E182" s="53"/>
-      <c r="F182" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="G182" s="6">
-        <v>180</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="25">
       <c r="A183" s="88" t="s">
-        <v>389</v>
-      </c>
-      <c r="B183" s="75" t="s">
-        <v>352</v>
+        <v>386</v>
+      </c>
+      <c r="B183" s="74" t="s">
+        <v>16</v>
       </c>
       <c r="C183" s="103" t="s">
         <v>366</v>
       </c>
       <c r="D183" s="127" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E183" s="53"/>
       <c r="F183" s="53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G183" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="25">
+      <c r="A184" s="88" t="s">
+        <v>386</v>
+      </c>
+      <c r="B184" s="75" t="s">
+        <v>486</v>
+      </c>
+      <c r="C184" s="103" t="s">
+        <v>364</v>
+      </c>
+      <c r="D184" s="127" t="s">
+        <v>440</v>
+      </c>
+      <c r="E184" s="53"/>
+      <c r="F184" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="G184" s="6">
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="37">
-      <c r="A184" s="88" t="s">
-        <v>389</v>
-      </c>
-      <c r="B184" s="74" t="s">
+    <row r="185" spans="1:7" ht="37">
+      <c r="A185" s="88" t="s">
+        <v>386</v>
+      </c>
+      <c r="B185" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C184" s="103" t="s">
-        <v>369</v>
-      </c>
-      <c r="D184" s="127" t="s">
-        <v>444</v>
-      </c>
-      <c r="E184" s="53"/>
-      <c r="F184" s="53"/>
-      <c r="G184" s="6">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="25">
-      <c r="A185" s="88" t="s">
-        <v>389</v>
-      </c>
-      <c r="B185" s="74" t="s">
-        <v>351</v>
-      </c>
       <c r="C185" s="103" t="s">
-        <v>410</v>
+        <v>367</v>
       </c>
       <c r="D185" s="127" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E185" s="53"/>
       <c r="F185" s="53"/>
       <c r="G185" s="6">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="44">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="25">
       <c r="A186" s="88" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B186" s="74" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="C186" s="103" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="D186" s="127" t="s">
-        <v>444</v>
-      </c>
-      <c r="E186" s="54" t="s">
-        <v>411</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="E186" s="53"/>
       <c r="F186" s="53"/>
       <c r="G186" s="6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="44">
+      <c r="A187" s="88" t="s">
+        <v>386</v>
+      </c>
+      <c r="B187" s="74" t="s">
+        <v>365</v>
+      </c>
+      <c r="C187" s="103" t="s">
+        <v>387</v>
+      </c>
+      <c r="D187" s="127" t="s">
+        <v>440</v>
+      </c>
+      <c r="E187" s="54" t="s">
+        <v>488</v>
+      </c>
+      <c r="F187" s="53"/>
+      <c r="G187" s="6">
         <v>184</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="25">
-      <c r="A187" s="89" t="s">
-        <v>371</v>
-      </c>
-      <c r="B187" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C187" s="104" t="s">
-        <v>387</v>
-      </c>
-      <c r="D187" s="128" t="s">
-        <v>444</v>
-      </c>
-      <c r="E187" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="F187" s="6"/>
-      <c r="G187" s="6">
-        <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="25">
       <c r="A188" s="89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B188" s="76" t="s">
-        <v>376</v>
-      </c>
-      <c r="C188" s="92" t="s">
-        <v>386</v>
-      </c>
-      <c r="D188" s="129" t="s">
-        <v>443</v>
-      </c>
-      <c r="E188" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="C188" s="104" t="s">
+        <v>385</v>
+      </c>
+      <c r="D188" s="128" t="s">
+        <v>440</v>
+      </c>
+      <c r="E188" s="17" t="s">
+        <v>452</v>
+      </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="25">
       <c r="A189" s="89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B189" s="76" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C189" s="92" t="s">
-        <v>377</v>
-      </c>
-      <c r="D189" s="128" t="s">
-        <v>443</v>
+        <v>384</v>
+      </c>
+      <c r="D189" s="129" t="s">
+        <v>439</v>
       </c>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="25">
       <c r="A190" s="89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B190" s="76" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C190" s="92" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D190" s="128" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="37">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="25">
       <c r="A191" s="89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B191" s="76" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C191" s="92" t="s">
-        <v>383</v>
-      </c>
-      <c r="D191" s="129" t="s">
-        <v>443</v>
+        <v>376</v>
+      </c>
+      <c r="D191" s="128" t="s">
+        <v>440</v>
       </c>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="37">
       <c r="A192" s="89" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B192" s="76" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C192" s="92" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D192" s="129" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="37">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="25">
       <c r="A193" s="89" t="s">
-        <v>371</v>
-      </c>
-      <c r="B193" s="72" t="s">
-        <v>17</v>
+        <v>369</v>
+      </c>
+      <c r="B193" s="76" t="s">
+        <v>380</v>
       </c>
       <c r="C193" s="92" t="s">
-        <v>369</v>
-      </c>
-      <c r="D193" s="126" t="s">
-        <v>444</v>
+        <v>382</v>
+      </c>
+      <c r="D193" s="129" t="s">
+        <v>439</v>
       </c>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="37">
+      <c r="A194" s="89" t="s">
+        <v>369</v>
+      </c>
+      <c r="B194" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="C194" s="92" t="s">
+        <v>367</v>
+      </c>
+      <c r="D194" s="126" t="s">
+        <v>440</v>
+      </c>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6">
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="25">
-      <c r="A194" s="89" t="s">
-        <v>371</v>
-      </c>
-      <c r="B194" s="71" t="s">
+    <row r="195" spans="1:7" ht="25">
+      <c r="A195" s="89" t="s">
+        <v>369</v>
+      </c>
+      <c r="B195" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C194" s="92" t="s">
-        <v>385</v>
-      </c>
-      <c r="D194" s="4" t="s">
+      <c r="C195" s="92" t="s">
+        <v>383</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E195" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="E194" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="F194" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G194" s="6">
+      <c r="F195" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G195" s="6">
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="25">
-      <c r="A195" s="88" t="s">
-        <v>395</v>
-      </c>
-      <c r="B195" s="76" t="s">
+    <row r="196" spans="1:7" ht="25">
+      <c r="A196" s="88" t="s">
+        <v>392</v>
+      </c>
+      <c r="B196" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C195" s="92" t="s">
-        <v>396</v>
-      </c>
-      <c r="D195" s="130" t="s">
-        <v>444</v>
-      </c>
-      <c r="E195" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="F195" s="6"/>
-      <c r="G195" s="6">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="37">
-      <c r="A196" s="88" t="s">
-        <v>395</v>
-      </c>
-      <c r="B196" s="76" t="s">
-        <v>12</v>
-      </c>
       <c r="C196" s="92" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D196" s="130" t="s">
-        <v>444</v>
-      </c>
-      <c r="E196" s="6"/>
+        <v>440</v>
+      </c>
+      <c r="E196" s="17" t="s">
+        <v>452</v>
+      </c>
       <c r="F196" s="6"/>
       <c r="G196" s="6">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="37">
       <c r="A197" s="88" t="s">
-        <v>395</v>
-      </c>
-      <c r="B197" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="C197" s="103" t="s">
-        <v>404</v>
+        <v>392</v>
+      </c>
+      <c r="B197" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C197" s="92" t="s">
+        <v>394</v>
       </c>
       <c r="D197" s="130" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="25">
       <c r="A198" s="88" t="s">
-        <v>395</v>
-      </c>
-      <c r="B198" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="C198" s="92" t="s">
-        <v>398</v>
+        <v>392</v>
+      </c>
+      <c r="B198" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C198" s="103" t="s">
+        <v>401</v>
       </c>
       <c r="D198" s="130" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="25">
       <c r="A199" s="88" t="s">
+        <v>392</v>
+      </c>
+      <c r="B199" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C199" s="92" t="s">
         <v>395</v>
       </c>
-      <c r="B199" s="76" t="s">
-        <v>399</v>
-      </c>
-      <c r="C199" s="92" t="s">
-        <v>400</v>
-      </c>
       <c r="D199" s="130" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="6">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="37">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="25">
       <c r="A200" s="88" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B200" s="76" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C200" s="92" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D200" s="130" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="37">
       <c r="A201" s="88" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B201" s="76" t="s">
-        <v>2</v>
+        <v>398</v>
       </c>
       <c r="C201" s="92" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D201" s="130" t="s">
-        <v>443</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="6">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="25">
       <c r="A202" s="88" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B202" s="76" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C202" s="92" t="s">
-        <v>461</v>
+        <v>400</v>
       </c>
       <c r="D202" s="130" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="30">
-      <c r="A203" s="137" t="s">
-        <v>395</v>
-      </c>
-      <c r="B203" s="133" t="s">
-        <v>14</v>
-      </c>
-      <c r="C203" s="134" t="s">
-        <v>460</v>
-      </c>
-      <c r="D203" s="135" t="s">
-        <v>444</v>
-      </c>
-      <c r="E203" s="136" t="s">
-        <v>450</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="25">
+      <c r="A203" s="88" t="s">
+        <v>392</v>
+      </c>
+      <c r="B203" s="76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C203" s="92" t="s">
+        <v>456</v>
+      </c>
+      <c r="D203" s="130" t="s">
+        <v>440</v>
       </c>
       <c r="F203" s="6"/>
       <c r="G203" s="6">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="108" t="s">
-        <v>419</v>
-      </c>
-      <c r="B204" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204" s="92" t="s">
-        <v>420</v>
-      </c>
-      <c r="D204" s="130" t="s">
-        <v>444</v>
-      </c>
-      <c r="E204" s="17" t="s">
-        <v>457</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="30">
+      <c r="A204" s="137" t="s">
+        <v>392</v>
+      </c>
+      <c r="B204" s="133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C204" s="134" t="s">
+        <v>455</v>
+      </c>
+      <c r="D204" s="135" t="s">
+        <v>440</v>
+      </c>
+      <c r="E204" s="136" t="s">
+        <v>445</v>
       </c>
       <c r="F204" s="6"/>
       <c r="G204" s="6">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="108" t="s">
-        <v>419</v>
-      </c>
-      <c r="B205" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="C205" s="103" t="s">
-        <v>423</v>
+        <v>415</v>
+      </c>
+      <c r="B205" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="92" t="s">
+        <v>416</v>
       </c>
       <c r="D205" s="130" t="s">
-        <v>444</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="E205" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="F205" s="6"/>
       <c r="G205" s="6">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="108" t="s">
+        <v>415</v>
+      </c>
+      <c r="B206" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C206" s="103" t="s">
         <v>419</v>
       </c>
-      <c r="B206" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="C206" s="92" t="s">
-        <v>421</v>
-      </c>
       <c r="D206" s="130" t="s">
-        <v>443</v>
-      </c>
-      <c r="E206" s="6"/>
-      <c r="F206" s="6"/>
+        <v>440</v>
+      </c>
       <c r="G206" s="6">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="108" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B207" s="67" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C207" s="92" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D207" s="130" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" s="6">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="108" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B208" s="67" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C208" s="92" t="s">
-        <v>461</v>
+        <v>418</v>
       </c>
       <c r="D208" s="130" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
       <c r="G208" s="6">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="108" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B209" s="67" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C209" s="92" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D209" s="130" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="6">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="107" t="s">
-        <v>413</v>
+      <c r="A210" s="108" t="s">
+        <v>415</v>
       </c>
       <c r="B210" s="67" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C210" s="92" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="D210" s="130" t="s">
-        <v>444</v>
-      </c>
-      <c r="E210" s="17" t="s">
-        <v>457</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="6">
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="107" t="s">
-        <v>413</v>
-      </c>
-      <c r="B211" s="74" t="s">
-        <v>114</v>
-      </c>
-      <c r="C211" s="103" t="s">
-        <v>424</v>
+        <v>409</v>
+      </c>
+      <c r="B211" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" s="92" t="s">
+        <v>410</v>
       </c>
       <c r="D211" s="130" t="s">
-        <v>444</v>
-      </c>
-      <c r="E211" s="6"/>
+        <v>440</v>
+      </c>
+      <c r="E211" s="17" t="s">
+        <v>452</v>
+      </c>
       <c r="F211" s="6"/>
       <c r="G211" s="6">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="91">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212" s="107" t="s">
-        <v>413</v>
-      </c>
-      <c r="B212" s="67" t="s">
-        <v>415</v>
-      </c>
-      <c r="C212" s="92" t="s">
-        <v>418</v>
+        <v>409</v>
+      </c>
+      <c r="B212" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="C212" s="103" t="s">
+        <v>420</v>
       </c>
       <c r="D212" s="130" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="6">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="91">
       <c r="A213" s="107" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B213" s="67" t="s">
-        <v>49</v>
+        <v>411</v>
       </c>
       <c r="C213" s="92" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D213" s="130" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="6">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="107" t="s">
-        <v>413</v>
-      </c>
-      <c r="B214" s="76" t="s">
-        <v>399</v>
+        <v>409</v>
+      </c>
+      <c r="B214" s="67" t="s">
+        <v>48</v>
       </c>
       <c r="C214" s="92" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="D214" s="130" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="6">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="36" customHeight="1">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" s="107" t="s">
-        <v>413</v>
-      </c>
-      <c r="B215" s="67" t="s">
-        <v>2</v>
+        <v>409</v>
+      </c>
+      <c r="B215" s="76" t="s">
+        <v>396</v>
       </c>
       <c r="C215" s="92" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="D215" s="130" t="s">
-        <v>443</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="6">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="36" customHeight="1">
       <c r="A216" s="107" t="s">
+        <v>409</v>
+      </c>
+      <c r="B216" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C216" s="92" t="s">
         <v>413</v>
       </c>
-      <c r="B216" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C216" s="92" t="s">
-        <v>461</v>
-      </c>
       <c r="D216" s="130" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F216" s="6"/>
       <c r="G216" s="6">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="55" customHeight="1">
-      <c r="A217" s="132" t="s">
-        <v>413</v>
-      </c>
-      <c r="B217" s="133" t="s">
-        <v>14</v>
-      </c>
-      <c r="C217" s="134" t="s">
-        <v>460</v>
-      </c>
-      <c r="D217" s="135" t="s">
-        <v>444</v>
-      </c>
-      <c r="E217" s="136" t="s">
-        <v>478</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="36" customHeight="1">
+      <c r="A217" s="107" t="s">
+        <v>409</v>
+      </c>
+      <c r="B217" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217" s="92" t="s">
+        <v>456</v>
+      </c>
+      <c r="D217" s="130" t="s">
+        <v>440</v>
       </c>
       <c r="F217" s="6"/>
       <c r="G217" s="6">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="55" customHeight="1">
+      <c r="A218" s="132" t="s">
+        <v>409</v>
+      </c>
+      <c r="B218" s="133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C218" s="134" t="s">
+        <v>455</v>
+      </c>
+      <c r="D218" s="135" t="s">
+        <v>440</v>
+      </c>
+      <c r="E218" s="136" t="s">
+        <v>473</v>
+      </c>
+      <c r="F218" s="6"/>
+      <c r="G218" s="6">
         <v>209</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G217"/>
+  <autoFilter ref="A1:G218"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
@@ -8280,7 +8313,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>2</v>
@@ -8291,10 +8324,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C2" t="s">
         <v>430</v>
-      </c>
-      <c r="C2" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8302,10 +8335,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8313,10 +8346,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C4" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8324,10 +8357,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8335,10 +8368,10 @@
         <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C6" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8346,10 +8379,10 @@
         <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -8403,70 +8436,70 @@
         <v>7</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="41" t="s">
-        <v>119</v>
-      </c>
       <c r="F1" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G1" s="41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I1" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J1" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K1" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="M1" s="41" t="s">
         <v>132</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>133</v>
       </c>
       <c r="N1" s="22" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P1" s="41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q1" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R1" s="22" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="T1" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="U1" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" s="41" t="s">
-        <v>142</v>
-      </c>
       <c r="W1" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X1" s="28" t="s">
         <v>14</v>
@@ -8523,13 +8556,13 @@
         <v>12</v>
       </c>
       <c r="C1" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F1" s="67" t="s">
         <v>23</v>
@@ -8544,7 +8577,7 @@
         <v>2</v>
       </c>
       <c r="J1" s="67" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K1" s="67" t="s">
         <v>9</v>
@@ -8568,13 +8601,13 @@
         <v>19</v>
       </c>
       <c r="R1" s="67" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="S1" s="67" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="T1" s="67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U1" s="67" t="s">
         <v>14</v>
@@ -8618,16 +8651,16 @@
         <v>12</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="76" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F1" s="76" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G1" s="76" t="s">
         <v>2</v>
@@ -8648,7 +8681,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -8667,7 +8700,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -8688,7 +8721,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -8707,7 +8740,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -8726,7 +8759,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -8745,7 +8778,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -8764,7 +8797,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -8783,7 +8816,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -8827,10 +8860,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="67" t="s">
         <v>2</v>
@@ -8878,16 +8911,16 @@
         <v>7</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="76" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F1" s="67" t="s">
         <v>2</v>
@@ -8908,11 +8941,11 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G2" s="6">
         <v>99</v>
@@ -8928,13 +8961,13 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -8950,11 +8983,11 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G4" s="6">
         <v>2</v>
@@ -8970,11 +9003,11 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G5" s="6">
         <v>3</v>
@@ -8990,11 +9023,11 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G6" s="6">
         <v>4</v>
@@ -9010,11 +9043,11 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G7" s="6">
         <v>5</v>
@@ -9067,10 +9100,10 @@
         <v>11</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>2</v>
@@ -9079,13 +9112,13 @@
         <v>17</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I1" s="22" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>6</v>
@@ -9122,7 +9155,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>2</v>
@@ -9131,22 +9164,22 @@
         <v>6</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I1" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L1" s="27" t="s">
         <v>11</v>
@@ -9155,13 +9188,13 @@
         <v>17</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O1" s="22" t="s">
         <v>16</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="28" t="s">
         <v>14</v>
@@ -9203,13 +9236,13 @@
         <v>7</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>2</v>
@@ -9218,7 +9251,7 @@
         <v>17</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>6</v>
@@ -9235,13 +9268,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>294</v>
-      </c>
       <c r="E2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9252,13 +9285,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="52" t="s">
         <v>295</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>296</v>
-      </c>
       <c r="E3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9269,13 +9302,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="52" t="s">
-        <v>194</v>
-      </c>
       <c r="E4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9286,13 +9319,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="52" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="52" t="s">
-        <v>196</v>
-      </c>
       <c r="E5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9303,13 +9336,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>198</v>
-      </c>
       <c r="E6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9320,13 +9353,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="D7" s="52" t="s">
-        <v>200</v>
-      </c>
       <c r="E7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9337,13 +9370,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="D8" s="52" t="s">
-        <v>202</v>
-      </c>
       <c r="E8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9354,13 +9387,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="52" t="s">
-        <v>204</v>
-      </c>
       <c r="E9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9371,13 +9404,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="52" t="s">
-        <v>206</v>
-      </c>
       <c r="E10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9388,13 +9421,13 @@
         <v>3</v>
       </c>
       <c r="C11" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="52" t="s">
         <v>207</v>
       </c>
-      <c r="D11" s="52" t="s">
-        <v>208</v>
-      </c>
       <c r="E11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9405,13 +9438,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="52" t="s">
-        <v>210</v>
-      </c>
       <c r="E12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9422,13 +9455,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="D13" s="52" t="s">
-        <v>212</v>
-      </c>
       <c r="E13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9439,13 +9472,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="D14" s="52" t="s">
-        <v>214</v>
-      </c>
       <c r="E14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9456,13 +9489,13 @@
         <v>4</v>
       </c>
       <c r="C15" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="52" t="s">
-        <v>216</v>
-      </c>
       <c r="E15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9473,13 +9506,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="D16" s="52" t="s">
-        <v>218</v>
-      </c>
       <c r="E16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -9490,13 +9523,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="D17" s="52" t="s">
-        <v>220</v>
-      </c>
       <c r="E17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9507,13 +9540,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="D18" s="52" t="s">
-        <v>222</v>
-      </c>
       <c r="E18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -9524,13 +9557,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="D19" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="D19" s="52" t="s">
-        <v>224</v>
-      </c>
       <c r="E19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -9541,13 +9574,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="D20" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D20" s="52" t="s">
-        <v>226</v>
-      </c>
       <c r="E20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -9558,13 +9591,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="D21" s="52" t="s">
-        <v>228</v>
-      </c>
       <c r="E21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -9575,13 +9608,13 @@
         <v>6</v>
       </c>
       <c r="C22" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="D22" s="52" t="s">
-        <v>230</v>
-      </c>
       <c r="E22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -9592,13 +9625,13 @@
         <v>6</v>
       </c>
       <c r="C23" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="D23" s="52" t="s">
-        <v>232</v>
-      </c>
       <c r="E23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -9609,13 +9642,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="D24" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="D24" s="52" t="s">
-        <v>234</v>
-      </c>
       <c r="E24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -9626,13 +9659,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D25" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="D25" s="52" t="s">
-        <v>236</v>
-      </c>
       <c r="E25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -9643,13 +9676,13 @@
         <v>7</v>
       </c>
       <c r="C26" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="D26" s="52" t="s">
-        <v>238</v>
-      </c>
       <c r="E26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -9660,13 +9693,13 @@
         <v>7</v>
       </c>
       <c r="C27" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="D27" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="D27" s="52" t="s">
-        <v>240</v>
-      </c>
       <c r="E27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -9677,13 +9710,13 @@
         <v>7</v>
       </c>
       <c r="C28" s="52" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="D28" s="52" t="s">
-        <v>242</v>
-      </c>
       <c r="E28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -9694,13 +9727,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="D29" s="52" t="s">
-        <v>244</v>
-      </c>
       <c r="E29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -9711,13 +9744,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="D30" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="D30" s="52" t="s">
-        <v>246</v>
-      </c>
       <c r="E30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -9728,13 +9761,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="D31" s="52" t="s">
-        <v>248</v>
-      </c>
       <c r="E31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -9745,13 +9778,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="D32" s="52" t="s">
-        <v>250</v>
-      </c>
       <c r="E32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -9762,13 +9795,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="D33" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="D33" s="52" t="s">
-        <v>252</v>
-      </c>
       <c r="E33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -9779,13 +9812,13 @@
         <v>9</v>
       </c>
       <c r="C34" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="D34" s="52" t="s">
-        <v>254</v>
-      </c>
       <c r="E34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -9796,13 +9829,13 @@
         <v>9</v>
       </c>
       <c r="C35" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="D35" s="52" t="s">
-        <v>256</v>
-      </c>
       <c r="E35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -9813,13 +9846,13 @@
         <v>9</v>
       </c>
       <c r="C36" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="D36" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="D36" s="52" t="s">
-        <v>258</v>
-      </c>
       <c r="E36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -9830,13 +9863,13 @@
         <v>9</v>
       </c>
       <c r="C37" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="D37" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="D37" s="52" t="s">
-        <v>260</v>
-      </c>
       <c r="E37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -9847,13 +9880,13 @@
         <v>10</v>
       </c>
       <c r="C38" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="D38" s="52" t="s">
-        <v>262</v>
-      </c>
       <c r="E38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -9864,13 +9897,13 @@
         <v>10</v>
       </c>
       <c r="C39" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="D39" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="D39" s="52" t="s">
-        <v>264</v>
-      </c>
       <c r="E39" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -9881,13 +9914,13 @@
         <v>10</v>
       </c>
       <c r="C40" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="D40" s="52" t="s">
-        <v>266</v>
-      </c>
       <c r="E40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -9898,13 +9931,13 @@
         <v>10</v>
       </c>
       <c r="C41" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="D41" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="D41" s="52" t="s">
-        <v>268</v>
-      </c>
       <c r="E41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -9915,13 +9948,13 @@
         <v>11</v>
       </c>
       <c r="C42" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="D42" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="D42" s="52" t="s">
-        <v>270</v>
-      </c>
       <c r="E42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -9932,13 +9965,13 @@
         <v>11</v>
       </c>
       <c r="C43" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="D43" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="D43" s="52" t="s">
-        <v>272</v>
-      </c>
       <c r="E43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -9949,13 +9982,13 @@
         <v>11</v>
       </c>
       <c r="C44" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="D44" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="D44" s="52" t="s">
-        <v>274</v>
-      </c>
       <c r="E44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -9966,13 +9999,13 @@
         <v>11</v>
       </c>
       <c r="C45" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="D45" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="D45" s="52" t="s">
-        <v>276</v>
-      </c>
       <c r="E45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -9983,13 +10016,13 @@
         <v>12</v>
       </c>
       <c r="C46" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="D46" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="D46" s="52" t="s">
-        <v>278</v>
-      </c>
       <c r="E46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -10000,13 +10033,13 @@
         <v>12</v>
       </c>
       <c r="C47" s="52" t="s">
+        <v>278</v>
+      </c>
+      <c r="D47" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="D47" s="52" t="s">
-        <v>280</v>
-      </c>
       <c r="E47" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -10017,13 +10050,13 @@
         <v>12</v>
       </c>
       <c r="C48" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="D48" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="D48" s="52" t="s">
-        <v>282</v>
-      </c>
       <c r="E48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -10034,13 +10067,13 @@
         <v>12</v>
       </c>
       <c r="C49" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="D49" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="D49" s="52" t="s">
-        <v>284</v>
-      </c>
       <c r="E49" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -10051,13 +10084,13 @@
         <v>13</v>
       </c>
       <c r="C50" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="D50" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="D50" s="52" t="s">
-        <v>286</v>
-      </c>
       <c r="E50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -10068,13 +10101,13 @@
         <v>13</v>
       </c>
       <c r="C51" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="D51" s="52" t="s">
         <v>287</v>
       </c>
-      <c r="D51" s="52" t="s">
-        <v>288</v>
-      </c>
       <c r="E51" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -10085,13 +10118,13 @@
         <v>13</v>
       </c>
       <c r="C52" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="D52" s="52" t="s">
         <v>289</v>
       </c>
-      <c r="D52" s="52" t="s">
-        <v>290</v>
-      </c>
       <c r="E52" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -10102,13 +10135,13 @@
         <v>13</v>
       </c>
       <c r="C53" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="D53" s="52" t="s">
-        <v>292</v>
-      </c>
       <c r="E53" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -10147,19 +10180,19 @@
         <v>7</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E1" s="44" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G1" s="44" t="s">
         <v>6</v>
@@ -10204,25 +10237,25 @@
         <v>16</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I1" s="23" t="s">
         <v>14</v>
@@ -10276,31 +10309,31 @@
         <v>12</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H1" s="34" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J1" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L1" s="34" t="s">
         <v>8</v>
@@ -10309,13 +10342,13 @@
         <v>17</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O1" s="22" t="s">
         <v>16</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>6</v>
@@ -10332,10 +10365,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -10346,10 +10379,10 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="H3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -10401,31 +10434,31 @@
         <v>12</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F1" s="48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H1" s="48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I1" s="48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J1" s="48" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L1" s="48" t="s">
         <v>8</v>
@@ -10434,13 +10467,13 @@
         <v>17</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>6</v>
@@ -10480,37 +10513,37 @@
         <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M1" s="9" t="s">
         <v>8</v>
@@ -10519,16 +10552,16 @@
         <v>17</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q1" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S1" s="14" t="s">
         <v>6</v>

--- a/db/excel/sqlite-inovation-manager-ver-1.0.xlsx
+++ b/db/excel/sqlite-inovation-manager-ver-1.0.xlsx
@@ -1187,9 +1187,6 @@
     <t>đường dẫn liên kết file mở ra https://c3.mobifone.vn/file_/.....</t>
   </si>
   <si>
-    <t>đường dẫn file gốc đọc từ ổ cứng /upload.../</t>
-  </si>
-  <si>
     <t>Mã user thực hiện tạo file này</t>
   </si>
   <si>
@@ -1373,9 +1370,6 @@
     <t xml:space="preserve">, FOREIGN KEY (organization_id) REFERENCES organizations(id) , FOREIGN KEY (parent_id) REFERENCES ideas(id) , FOREIGN KEY (user_id) REFERENCES users(id) </t>
   </si>
   <si>
-    <t xml:space="preserve">,  FOREIGN KEY (user_id) REFERENCES users(id) </t>
-  </si>
-  <si>
     <t xml:space="preserve">,  FOREIGN KEY (organization_id) REFERENCES organizations(id) </t>
   </si>
   <si>
@@ -1518,6 +1512,12 @@
   </si>
   <si>
     <t>đối tượng json ghi các user nào đã voted cho ý tưởng này [1,2,3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,   UNIQUE(file_path), FOREIGN KEY (user_id) REFERENCES users(id) </t>
+  </si>
+  <si>
+    <t>đường dẫn file gốc đọc từ ổ cứng là duy nhất cho mỗi file, đường dẫn tuyệt đối __dirname__...</t>
   </si>
 </sst>
 </file>
@@ -1948,9 +1948,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="166">
+  <cellStyleXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2453,7 +2455,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="166">
+  <cellStyles count="168">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -2537,6 +2539,7 @@
     <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -2619,6 +2622,7 @@
     <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3026,8 +3030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -4094,7 +4098,7 @@
         <v>37</v>
       </c>
       <c r="D2" s="113" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11" t="s">
@@ -4115,7 +4119,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="113" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
@@ -4134,7 +4138,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="113" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
@@ -4153,7 +4157,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="113" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
@@ -4169,10 +4173,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D6" s="113" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
@@ -4191,7 +4195,7 @@
         <v>41</v>
       </c>
       <c r="D7" s="113" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
@@ -4210,7 +4214,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="114" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>43</v>
@@ -4231,10 +4235,10 @@
         <v>45</v>
       </c>
       <c r="D9" s="115" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="6">
@@ -4252,7 +4256,7 @@
         <v>46</v>
       </c>
       <c r="D10" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="6"/>
@@ -4271,7 +4275,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="6"/>
@@ -4290,7 +4294,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="6"/>
@@ -4309,7 +4313,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="6"/>
@@ -4328,7 +4332,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E14" s="20"/>
       <c r="F14" s="6"/>
@@ -4347,7 +4351,7 @@
         <v>53</v>
       </c>
       <c r="D15" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="6"/>
@@ -4366,7 +4370,7 @@
         <v>54</v>
       </c>
       <c r="D16" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="6"/>
@@ -4385,7 +4389,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="6"/>
@@ -4404,7 +4408,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="6"/>
@@ -4423,7 +4427,7 @@
         <v>42</v>
       </c>
       <c r="D19" s="114" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="6"/>
@@ -4442,10 +4446,10 @@
         <v>58</v>
       </c>
       <c r="D20" s="117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F20" s="25"/>
       <c r="G20" s="6">
@@ -4463,10 +4467,10 @@
         <v>60</v>
       </c>
       <c r="D21" s="118" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="6">
@@ -4484,7 +4488,7 @@
         <v>61</v>
       </c>
       <c r="D22" s="119" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="6"/>
@@ -4503,7 +4507,7 @@
         <v>62</v>
       </c>
       <c r="D23" s="119" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="6"/>
@@ -4522,7 +4526,7 @@
         <v>63</v>
       </c>
       <c r="D24" s="119" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="6"/>
@@ -4541,7 +4545,7 @@
         <v>42</v>
       </c>
       <c r="D25" s="114" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="6"/>
@@ -4554,13 +4558,13 @@
         <v>59</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C26" s="95" t="s">
         <v>65</v>
       </c>
       <c r="D26" s="119" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="6"/>
@@ -4579,7 +4583,7 @@
         <v>67</v>
       </c>
       <c r="D27" s="119" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>68</v>
@@ -4600,7 +4604,7 @@
         <v>70</v>
       </c>
       <c r="D28" s="119" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="6"/>
@@ -4619,7 +4623,7 @@
         <v>72</v>
       </c>
       <c r="D29" s="119" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="6"/>
@@ -4638,7 +4642,7 @@
         <v>73</v>
       </c>
       <c r="D30" s="119" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="6"/>
@@ -4657,7 +4661,7 @@
         <v>75</v>
       </c>
       <c r="D31" s="119" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E31" s="26"/>
       <c r="F31" s="6"/>
@@ -4676,7 +4680,7 @@
         <v>76</v>
       </c>
       <c r="D32" s="119" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="6"/>
@@ -4695,7 +4699,7 @@
         <v>77</v>
       </c>
       <c r="D33" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="6"/>
@@ -4714,7 +4718,7 @@
         <v>78</v>
       </c>
       <c r="D34" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="6"/>
@@ -4733,7 +4737,7 @@
         <v>79</v>
       </c>
       <c r="D35" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="6"/>
@@ -4752,7 +4756,7 @@
         <v>80</v>
       </c>
       <c r="D36" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="6"/>
@@ -4771,10 +4775,10 @@
         <v>81</v>
       </c>
       <c r="D37" s="117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F37" s="25"/>
       <c r="G37" s="6">
@@ -4792,10 +4796,10 @@
         <v>83</v>
       </c>
       <c r="D38" s="118" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="6">
@@ -4807,13 +4811,13 @@
         <v>82</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C39" s="93" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D39" s="118" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E39" s="17"/>
       <c r="F39" s="18"/>
@@ -4832,7 +4836,7 @@
         <v>85</v>
       </c>
       <c r="D40" s="119" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E40" s="26"/>
       <c r="F40" s="6"/>
@@ -4851,7 +4855,7 @@
         <v>86</v>
       </c>
       <c r="D41" s="119" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="6"/>
@@ -4870,7 +4874,7 @@
         <v>87</v>
       </c>
       <c r="D42" s="119" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="6"/>
@@ -4889,7 +4893,7 @@
         <v>77</v>
       </c>
       <c r="D43" s="119" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="6"/>
@@ -4908,7 +4912,7 @@
         <v>78</v>
       </c>
       <c r="D44" s="119" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="6"/>
@@ -4927,7 +4931,7 @@
         <v>42</v>
       </c>
       <c r="D45" s="114" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="6"/>
@@ -4946,10 +4950,10 @@
         <v>88</v>
       </c>
       <c r="D46" s="117" t="s">
+        <v>439</v>
+      </c>
+      <c r="E46" s="24" t="s">
         <v>440</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>441</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="6">
@@ -4967,10 +4971,10 @@
         <v>90</v>
       </c>
       <c r="D47" s="115" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="6">
@@ -4988,7 +4992,7 @@
         <v>91</v>
       </c>
       <c r="D48" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E48" s="32"/>
       <c r="F48" s="33"/>
@@ -5007,7 +5011,7 @@
         <v>93</v>
       </c>
       <c r="D49" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E49" s="32"/>
       <c r="F49" s="33"/>
@@ -5026,7 +5030,7 @@
         <v>95</v>
       </c>
       <c r="D50" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E50" s="32"/>
       <c r="F50" s="33"/>
@@ -5045,7 +5049,7 @@
         <v>97</v>
       </c>
       <c r="D51" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="33"/>
@@ -5064,7 +5068,7 @@
         <v>99</v>
       </c>
       <c r="D52" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E52" s="32"/>
       <c r="F52" s="33"/>
@@ -5083,7 +5087,7 @@
         <v>100</v>
       </c>
       <c r="D53" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E53" s="32"/>
       <c r="F53" s="33"/>
@@ -5102,7 +5106,7 @@
         <v>101</v>
       </c>
       <c r="D54" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="33"/>
@@ -5121,7 +5125,7 @@
         <v>103</v>
       </c>
       <c r="D55" s="120" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E55" s="32"/>
       <c r="F55" s="33"/>
@@ -5140,7 +5144,7 @@
         <v>105</v>
       </c>
       <c r="D56" s="120" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E56" s="32"/>
       <c r="F56" s="33"/>
@@ -5159,7 +5163,7 @@
         <v>107</v>
       </c>
       <c r="D57" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E57" s="32"/>
       <c r="F57" s="33"/>
@@ -5178,7 +5182,7 @@
         <v>108</v>
       </c>
       <c r="D58" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E58" s="32"/>
       <c r="F58" s="33"/>
@@ -5197,7 +5201,7 @@
         <v>77</v>
       </c>
       <c r="D59" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="6"/>
@@ -5216,7 +5220,7 @@
         <v>78</v>
       </c>
       <c r="D60" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E60" s="20"/>
       <c r="F60" s="6"/>
@@ -5235,7 +5239,7 @@
         <v>79</v>
       </c>
       <c r="D61" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="6"/>
@@ -5254,7 +5258,7 @@
         <v>80</v>
       </c>
       <c r="D62" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="6"/>
@@ -5273,7 +5277,7 @@
         <v>42</v>
       </c>
       <c r="D63" s="114" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E63" s="32"/>
       <c r="F63" s="33"/>
@@ -5292,10 +5296,10 @@
         <v>110</v>
       </c>
       <c r="D64" s="117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E64" s="37" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="6">
@@ -5304,16 +5308,16 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="109" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B65" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="94" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D65" s="117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E65" s="37"/>
       <c r="F65" s="25"/>
@@ -5323,16 +5327,16 @@
     </row>
     <row r="66" spans="1:7" ht="36">
       <c r="A66" s="109" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B66" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="94" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D66" s="117" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E66" s="37"/>
       <c r="F66" s="25"/>
@@ -5342,16 +5346,16 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="109" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B67" s="28" t="s">
         <v>2</v>
       </c>
       <c r="C67" s="94" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D67" s="117" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E67" s="37"/>
       <c r="F67" s="25"/>
@@ -5370,10 +5374,10 @@
         <v>112</v>
       </c>
       <c r="D68" s="115" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="6">
@@ -5391,7 +5395,7 @@
         <v>114</v>
       </c>
       <c r="D69" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E69" s="39"/>
       <c r="F69" s="40"/>
@@ -5410,7 +5414,7 @@
         <v>116</v>
       </c>
       <c r="D70" s="121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E70" s="39"/>
       <c r="F70" s="40"/>
@@ -5429,7 +5433,7 @@
         <v>358</v>
       </c>
       <c r="D71" s="121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E71" s="42"/>
       <c r="F71" s="43"/>
@@ -5448,7 +5452,7 @@
         <v>119</v>
       </c>
       <c r="D72" s="121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E72" s="42"/>
       <c r="F72" s="43"/>
@@ -5467,7 +5471,7 @@
         <v>121</v>
       </c>
       <c r="D73" s="121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E73" s="42"/>
       <c r="F73" s="43"/>
@@ -5486,7 +5490,7 @@
         <v>123</v>
       </c>
       <c r="D74" s="121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E74" s="39"/>
       <c r="F74" s="40"/>
@@ -5505,7 +5509,7 @@
         <v>125</v>
       </c>
       <c r="D75" s="121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E75" s="39"/>
       <c r="F75" s="40"/>
@@ -5524,7 +5528,7 @@
         <v>127</v>
       </c>
       <c r="D76" s="121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E76" s="39"/>
       <c r="F76" s="40"/>
@@ -5543,7 +5547,7 @@
         <v>129</v>
       </c>
       <c r="D77" s="121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E77" s="39"/>
       <c r="F77" s="40" t="s">
@@ -5558,13 +5562,13 @@
         <v>111</v>
       </c>
       <c r="B78" s="41" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C78" s="92" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D78" s="121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E78" s="39"/>
       <c r="F78" s="40"/>
@@ -5583,7 +5587,7 @@
         <v>355</v>
       </c>
       <c r="D79" s="121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E79" s="39"/>
       <c r="F79" s="40"/>
@@ -5602,7 +5606,7 @@
         <v>356</v>
       </c>
       <c r="D80" s="121" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E80" s="39"/>
       <c r="F80" s="40"/>
@@ -5618,10 +5622,10 @@
         <v>132</v>
       </c>
       <c r="C81" s="92" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D81" s="122" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E81" s="39" t="s">
         <v>68</v>
@@ -5642,7 +5646,7 @@
         <v>133</v>
       </c>
       <c r="D82" s="122" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E82" s="39"/>
       <c r="F82" s="40"/>
@@ -5661,7 +5665,7 @@
         <v>135</v>
       </c>
       <c r="D83" s="122" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E83" s="39"/>
       <c r="F83" s="40"/>
@@ -5680,7 +5684,7 @@
         <v>137</v>
       </c>
       <c r="D84" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="6"/>
@@ -5699,7 +5703,7 @@
         <v>139</v>
       </c>
       <c r="D85" s="121" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E85" s="20"/>
       <c r="F85" s="6"/>
@@ -5718,7 +5722,7 @@
         <v>77</v>
       </c>
       <c r="D86" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E86" s="20"/>
       <c r="F86" s="6"/>
@@ -5737,7 +5741,7 @@
         <v>78</v>
       </c>
       <c r="D87" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E87" s="20"/>
       <c r="F87" s="6"/>
@@ -5756,7 +5760,7 @@
         <v>354</v>
       </c>
       <c r="D88" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="6"/>
@@ -5775,7 +5779,7 @@
         <v>80</v>
       </c>
       <c r="D89" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="6"/>
@@ -5794,7 +5798,7 @@
         <v>142</v>
       </c>
       <c r="D90" s="122" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="6"/>
@@ -5813,7 +5817,7 @@
         <v>144</v>
       </c>
       <c r="D91" s="122" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="6"/>
@@ -5832,10 +5836,10 @@
         <v>145</v>
       </c>
       <c r="D92" s="123" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E92" s="112" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F92" s="25"/>
       <c r="G92" s="6">
@@ -5851,10 +5855,10 @@
       </c>
       <c r="C93" s="94"/>
       <c r="D93" s="115" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E93" s="51" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F93" s="25"/>
       <c r="G93" s="6">
@@ -5870,7 +5874,7 @@
       </c>
       <c r="C94" s="94"/>
       <c r="D94" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E94" s="37"/>
       <c r="F94" s="25"/>
@@ -5887,7 +5891,7 @@
       </c>
       <c r="C95" s="94"/>
       <c r="D95" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E95" s="37"/>
       <c r="F95" s="25"/>
@@ -5904,7 +5908,7 @@
       </c>
       <c r="C96" s="94"/>
       <c r="D96" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E96" s="37"/>
       <c r="F96" s="25"/>
@@ -5921,7 +5925,7 @@
       </c>
       <c r="C97" s="94"/>
       <c r="D97" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E97" s="37"/>
       <c r="F97" s="25"/>
@@ -5938,7 +5942,7 @@
       </c>
       <c r="C98" s="94"/>
       <c r="D98" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E98" s="37"/>
       <c r="F98" s="25"/>
@@ -5955,7 +5959,7 @@
       </c>
       <c r="C99" s="94"/>
       <c r="D99" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E99" s="37"/>
       <c r="F99" s="25"/>
@@ -5972,7 +5976,7 @@
       </c>
       <c r="C100" s="94"/>
       <c r="D100" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E100" s="37" t="s">
         <v>68</v>
@@ -5993,7 +5997,7 @@
         <v>149</v>
       </c>
       <c r="D101" s="124" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E101" s="46"/>
       <c r="F101" s="6"/>
@@ -6012,7 +6016,7 @@
         <v>150</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E102" s="46"/>
       <c r="F102" s="6"/>
@@ -6031,7 +6035,7 @@
         <v>152</v>
       </c>
       <c r="D103" s="124" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E103" s="46"/>
       <c r="F103" s="6"/>
@@ -6050,7 +6054,7 @@
         <v>153</v>
       </c>
       <c r="D104" s="124" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E104" s="46"/>
       <c r="F104" s="6"/>
@@ -6069,7 +6073,7 @@
         <v>77</v>
       </c>
       <c r="D105" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="6"/>
@@ -6088,7 +6092,7 @@
         <v>78</v>
       </c>
       <c r="D106" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E106" s="20"/>
       <c r="F106" s="6"/>
@@ -6107,7 +6111,7 @@
         <v>79</v>
       </c>
       <c r="D107" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E107" s="20"/>
       <c r="F107" s="6"/>
@@ -6126,7 +6130,7 @@
         <v>80</v>
       </c>
       <c r="D108" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E108" s="20"/>
       <c r="F108" s="6"/>
@@ -6145,7 +6149,7 @@
         <v>154</v>
       </c>
       <c r="D109" s="117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E109" s="47" t="s">
         <v>155</v>
@@ -6166,10 +6170,10 @@
         <v>157</v>
       </c>
       <c r="D110" s="115" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E110" s="51" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F110" s="18"/>
       <c r="G110" s="6">
@@ -6187,7 +6191,7 @@
         <v>158</v>
       </c>
       <c r="D111" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E111" s="20"/>
       <c r="F111" s="6"/>
@@ -6206,7 +6210,7 @@
         <v>159</v>
       </c>
       <c r="D112" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="6"/>
@@ -6225,7 +6229,7 @@
         <v>160</v>
       </c>
       <c r="D113" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="6"/>
@@ -6244,7 +6248,7 @@
         <v>95</v>
       </c>
       <c r="D114" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="6"/>
@@ -6263,7 +6267,7 @@
         <v>97</v>
       </c>
       <c r="D115" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="6"/>
@@ -6282,7 +6286,7 @@
         <v>99</v>
       </c>
       <c r="D116" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="6"/>
@@ -6301,7 +6305,7 @@
         <v>161</v>
       </c>
       <c r="D117" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="6"/>
@@ -6320,7 +6324,7 @@
         <v>162</v>
       </c>
       <c r="D118" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E118" s="20"/>
       <c r="F118" s="6"/>
@@ -6339,7 +6343,7 @@
         <v>163</v>
       </c>
       <c r="D119" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="6"/>
@@ -6358,7 +6362,7 @@
         <v>164</v>
       </c>
       <c r="D120" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="6"/>
@@ -6377,7 +6381,7 @@
         <v>165</v>
       </c>
       <c r="D121" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="6"/>
@@ -6396,7 +6400,7 @@
         <v>77</v>
       </c>
       <c r="D122" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E122" s="20"/>
       <c r="F122" s="6"/>
@@ -6415,7 +6419,7 @@
         <v>78</v>
       </c>
       <c r="D123" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="6"/>
@@ -6434,7 +6438,7 @@
         <v>79</v>
       </c>
       <c r="D124" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E124" s="20"/>
       <c r="F124" s="6"/>
@@ -6453,7 +6457,7 @@
         <v>80</v>
       </c>
       <c r="D125" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="6"/>
@@ -6472,7 +6476,7 @@
         <v>42</v>
       </c>
       <c r="D126" s="114" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E126" s="20"/>
       <c r="F126" s="6"/>
@@ -6491,10 +6495,10 @@
         <v>166</v>
       </c>
       <c r="D127" s="117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E127" s="24" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F127" s="25"/>
       <c r="G127" s="6">
@@ -6512,10 +6516,10 @@
         <v>168</v>
       </c>
       <c r="D128" s="118" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E128" s="51" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F128" s="18"/>
       <c r="G128" s="6">
@@ -6533,7 +6537,7 @@
         <v>170</v>
       </c>
       <c r="D129" s="125" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E129" s="49"/>
       <c r="F129" s="13"/>
@@ -6552,7 +6556,7 @@
         <v>171</v>
       </c>
       <c r="D130" s="125" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E130" s="50"/>
       <c r="F130" s="13"/>
@@ -6571,7 +6575,7 @@
         <v>173</v>
       </c>
       <c r="D131" s="125" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E131" s="50"/>
       <c r="F131" s="13"/>
@@ -6590,7 +6594,7 @@
         <v>175</v>
       </c>
       <c r="D132" s="125" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E132" s="50"/>
       <c r="F132" s="13"/>
@@ -6609,7 +6613,7 @@
         <v>176</v>
       </c>
       <c r="D133" s="125" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E133" s="50"/>
       <c r="F133" s="13"/>
@@ -6628,7 +6632,7 @@
         <v>178</v>
       </c>
       <c r="D134" s="125" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E134" s="50"/>
       <c r="F134" s="13"/>
@@ -6647,7 +6651,7 @@
         <v>180</v>
       </c>
       <c r="D135" s="125" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E135" s="50"/>
       <c r="F135" s="13"/>
@@ -6666,7 +6670,7 @@
         <v>182</v>
       </c>
       <c r="D136" s="125" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E136" s="50"/>
       <c r="F136" s="13"/>
@@ -6685,7 +6689,7 @@
         <v>184</v>
       </c>
       <c r="D137" s="125" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E137" s="50"/>
       <c r="F137" s="13"/>
@@ -6704,7 +6708,7 @@
         <v>186</v>
       </c>
       <c r="D138" s="125" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E138" s="50"/>
       <c r="F138" s="13"/>
@@ -6723,7 +6727,7 @@
         <v>187</v>
       </c>
       <c r="D139" s="125" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E139" s="50"/>
       <c r="F139" s="13"/>
@@ -6742,7 +6746,7 @@
         <v>188</v>
       </c>
       <c r="D140" s="125" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E140" s="50"/>
       <c r="F140" s="13"/>
@@ -6761,7 +6765,7 @@
         <v>77</v>
       </c>
       <c r="D141" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="6"/>
@@ -6780,7 +6784,7 @@
         <v>78</v>
       </c>
       <c r="D142" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E142" s="20"/>
       <c r="F142" s="6"/>
@@ -6799,7 +6803,7 @@
         <v>79</v>
       </c>
       <c r="D143" s="116" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E143" s="20"/>
       <c r="F143" s="6"/>
@@ -6818,7 +6822,7 @@
         <v>80</v>
       </c>
       <c r="D144" s="116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E144" s="20"/>
       <c r="F144" s="6"/>
@@ -6837,7 +6841,7 @@
         <v>190</v>
       </c>
       <c r="D145" s="125" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E145" s="50"/>
       <c r="F145" s="13"/>
@@ -6856,7 +6860,7 @@
         <v>42</v>
       </c>
       <c r="D146" s="114" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E146" s="50"/>
       <c r="F146" s="13"/>
@@ -6875,10 +6879,10 @@
         <v>191</v>
       </c>
       <c r="D147" s="117" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E147" s="24" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F147" s="25"/>
       <c r="G147" s="6">
@@ -6896,10 +6900,10 @@
         <v>22</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E148" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F148" s="5"/>
       <c r="G148" s="6">
@@ -6914,10 +6918,10 @@
         <v>12</v>
       </c>
       <c r="C149" s="100" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="5"/>
@@ -6933,10 +6937,10 @@
         <v>113</v>
       </c>
       <c r="C150" s="101" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="5"/>
@@ -6949,13 +6953,13 @@
         <v>21</v>
       </c>
       <c r="B151" s="68" t="s">
+        <v>404</v>
+      </c>
+      <c r="C151" s="101" t="s">
         <v>405</v>
       </c>
-      <c r="C151" s="101" t="s">
-        <v>406</v>
-      </c>
       <c r="D151" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="5"/>
@@ -6968,13 +6972,13 @@
         <v>21</v>
       </c>
       <c r="B152" s="68" t="s">
+        <v>402</v>
+      </c>
+      <c r="C152" s="101" t="s">
         <v>403</v>
       </c>
-      <c r="C152" s="101" t="s">
-        <v>404</v>
-      </c>
       <c r="D152" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="5"/>
@@ -6993,7 +6997,7 @@
         <v>360</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="5"/>
@@ -7012,7 +7016,7 @@
         <v>24</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="5"/>
@@ -7031,7 +7035,7 @@
         <v>25</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="5"/>
@@ -7050,7 +7054,7 @@
         <v>370</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="5"/>
@@ -7069,7 +7073,7 @@
         <v>372</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="5"/>
@@ -7088,7 +7092,7 @@
         <v>26</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E158" s="6"/>
       <c r="F158" s="5"/>
@@ -7107,7 +7111,7 @@
         <v>28</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E159" s="6"/>
       <c r="F159" s="5"/>
@@ -7126,7 +7130,7 @@
         <v>35</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E160" s="7"/>
       <c r="F160" s="8" t="s">
@@ -7147,7 +7151,7 @@
         <v>29</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E161" s="6"/>
       <c r="F161" s="5" t="s">
@@ -7162,13 +7166,13 @@
         <v>21</v>
       </c>
       <c r="B162" s="70" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C162" s="92" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="5"/>
@@ -7187,7 +7191,7 @@
         <v>30</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="5" t="s">
@@ -7205,10 +7209,10 @@
         <v>20</v>
       </c>
       <c r="C164" s="92" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="5"/>
@@ -7221,13 +7225,13 @@
         <v>21</v>
       </c>
       <c r="B165" s="67" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C165" s="92" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="5"/>
@@ -7246,10 +7250,10 @@
         <v>33</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F166" s="5"/>
       <c r="G166" s="6">
@@ -7261,16 +7265,16 @@
         <v>21</v>
       </c>
       <c r="B167" s="67" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C167" s="92" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F167" s="5"/>
       <c r="G167" s="6">
@@ -7282,16 +7286,16 @@
         <v>21</v>
       </c>
       <c r="B168" s="67" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C168" s="92" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F168" s="5"/>
       <c r="G168" s="6">
@@ -7309,7 +7313,7 @@
         <v>34</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="5"/>
@@ -7325,13 +7329,13 @@
         <v>14</v>
       </c>
       <c r="C170" s="92" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E170" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F170" s="5"/>
       <c r="G170" s="6">
@@ -7349,10 +7353,10 @@
         <v>349</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E171" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="6">
@@ -7370,7 +7374,7 @@
         <v>359</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E172" s="17"/>
       <c r="F172" s="6"/>
@@ -7389,7 +7393,7 @@
         <v>353</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
@@ -7408,7 +7412,7 @@
         <v>373</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
@@ -7427,7 +7431,7 @@
         <v>372</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E175" s="4"/>
       <c r="F175" s="5"/>
@@ -7440,13 +7444,13 @@
         <v>348</v>
       </c>
       <c r="B176" s="71" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C176" s="92" t="s">
         <v>351</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6" t="s">
@@ -7467,7 +7471,7 @@
         <v>352</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E177" s="6"/>
       <c r="F177" s="6" t="s">
@@ -7488,10 +7492,10 @@
         <v>362</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E178" s="15" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F178" s="6" t="s">
         <v>31</v>
@@ -7511,7 +7515,7 @@
         <v>366</v>
       </c>
       <c r="D179" s="126" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="6" t="s">
@@ -7526,13 +7530,13 @@
         <v>363</v>
       </c>
       <c r="B180" s="73" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C180" s="102" t="s">
         <v>364</v>
       </c>
       <c r="D180" s="126" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="6" t="s">
@@ -7553,7 +7557,7 @@
         <v>367</v>
       </c>
       <c r="D181" s="126" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
@@ -7572,10 +7576,10 @@
         <v>368</v>
       </c>
       <c r="D182" s="126" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E182" s="15" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F182" s="6"/>
       <c r="G182" s="6">
@@ -7584,7 +7588,7 @@
     </row>
     <row r="183" spans="1:7" ht="25">
       <c r="A183" s="88" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B183" s="74" t="s">
         <v>16</v>
@@ -7593,7 +7597,7 @@
         <v>366</v>
       </c>
       <c r="D183" s="127" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E183" s="53"/>
       <c r="F183" s="53" t="s">
@@ -7605,16 +7609,16 @@
     </row>
     <row r="184" spans="1:7" ht="25">
       <c r="A184" s="88" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B184" s="75" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C184" s="103" t="s">
         <v>364</v>
       </c>
       <c r="D184" s="127" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E184" s="53"/>
       <c r="F184" s="53" t="s">
@@ -7626,7 +7630,7 @@
     </row>
     <row r="185" spans="1:7" ht="37">
       <c r="A185" s="88" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B185" s="74" t="s">
         <v>17</v>
@@ -7635,7 +7639,7 @@
         <v>367</v>
       </c>
       <c r="D185" s="127" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E185" s="53"/>
       <c r="F185" s="53"/>
@@ -7645,16 +7649,16 @@
     </row>
     <row r="186" spans="1:7" ht="25">
       <c r="A186" s="88" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B186" s="74" t="s">
         <v>350</v>
       </c>
       <c r="C186" s="103" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D186" s="127" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E186" s="53"/>
       <c r="F186" s="53"/>
@@ -7664,19 +7668,19 @@
     </row>
     <row r="187" spans="1:7" ht="44">
       <c r="A187" s="88" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B187" s="74" t="s">
         <v>365</v>
       </c>
       <c r="C187" s="103" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D187" s="127" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E187" s="54" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F187" s="53"/>
       <c r="G187" s="6">
@@ -7691,13 +7695,13 @@
         <v>7</v>
       </c>
       <c r="C188" s="104" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D188" s="128" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E188" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6">
@@ -7712,10 +7716,10 @@
         <v>374</v>
       </c>
       <c r="C189" s="92" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D189" s="129" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
@@ -7734,7 +7738,7 @@
         <v>375</v>
       </c>
       <c r="D190" s="128" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
@@ -7753,7 +7757,7 @@
         <v>376</v>
       </c>
       <c r="D191" s="128" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
@@ -7772,7 +7776,7 @@
         <v>381</v>
       </c>
       <c r="D192" s="129" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
@@ -7780,7 +7784,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="25">
+    <row r="193" spans="1:7" ht="37">
       <c r="A193" s="89" t="s">
         <v>369</v>
       </c>
@@ -7788,10 +7792,10 @@
         <v>380</v>
       </c>
       <c r="C193" s="92" t="s">
-        <v>382</v>
+        <v>492</v>
       </c>
       <c r="D193" s="129" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
@@ -7810,7 +7814,7 @@
         <v>367</v>
       </c>
       <c r="D194" s="126" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
@@ -7818,7 +7822,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="25">
+    <row r="195" spans="1:7" ht="30">
       <c r="A195" s="89" t="s">
         <v>369</v>
       </c>
@@ -7826,13 +7830,13 @@
         <v>16</v>
       </c>
       <c r="C195" s="92" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E195" s="15" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="F195" s="6" t="s">
         <v>31</v>
@@ -7843,19 +7847,19 @@
     </row>
     <row r="196" spans="1:7" ht="25">
       <c r="A196" s="88" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B196" s="76" t="s">
         <v>7</v>
       </c>
       <c r="C196" s="92" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D196" s="130" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E196" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="6">
@@ -7864,16 +7868,16 @@
     </row>
     <row r="197" spans="1:7" ht="37">
       <c r="A197" s="88" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B197" s="76" t="s">
         <v>12</v>
       </c>
       <c r="C197" s="92" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D197" s="130" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
@@ -7883,16 +7887,16 @@
     </row>
     <row r="198" spans="1:7" ht="25">
       <c r="A198" s="88" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B198" s="74" t="s">
         <v>113</v>
       </c>
       <c r="C198" s="103" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D198" s="130" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
@@ -7902,16 +7906,16 @@
     </row>
     <row r="199" spans="1:7" ht="25">
       <c r="A199" s="88" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B199" s="76" t="s">
         <v>48</v>
       </c>
       <c r="C199" s="92" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D199" s="130" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
@@ -7921,16 +7925,16 @@
     </row>
     <row r="200" spans="1:7" ht="25">
       <c r="A200" s="88" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B200" s="76" t="s">
+        <v>395</v>
+      </c>
+      <c r="C200" s="92" t="s">
         <v>396</v>
       </c>
-      <c r="C200" s="92" t="s">
-        <v>397</v>
-      </c>
       <c r="D200" s="130" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
@@ -7940,16 +7944,16 @@
     </row>
     <row r="201" spans="1:7" ht="37">
       <c r="A201" s="88" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B201" s="76" t="s">
+        <v>397</v>
+      </c>
+      <c r="C201" s="92" t="s">
         <v>398</v>
       </c>
-      <c r="C201" s="92" t="s">
-        <v>399</v>
-      </c>
       <c r="D201" s="130" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
@@ -7959,16 +7963,16 @@
     </row>
     <row r="202" spans="1:7" ht="25">
       <c r="A202" s="88" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B202" s="76" t="s">
         <v>2</v>
       </c>
       <c r="C202" s="92" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D202" s="130" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6">
@@ -7977,16 +7981,16 @@
     </row>
     <row r="203" spans="1:7" ht="25">
       <c r="A203" s="88" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B203" s="76" t="s">
         <v>6</v>
       </c>
       <c r="C203" s="92" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D203" s="130" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F203" s="6"/>
       <c r="G203" s="6">
@@ -7995,19 +7999,19 @@
     </row>
     <row r="204" spans="1:7" ht="30">
       <c r="A204" s="137" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B204" s="133" t="s">
         <v>14</v>
       </c>
       <c r="C204" s="134" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D204" s="135" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E204" s="136" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F204" s="6"/>
       <c r="G204" s="6">
@@ -8016,19 +8020,19 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="108" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B205" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C205" s="92" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D205" s="130" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E205" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F205" s="6"/>
       <c r="G205" s="6">
@@ -8037,16 +8041,16 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206" s="108" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B206" s="74" t="s">
         <v>113</v>
       </c>
       <c r="C206" s="103" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D206" s="130" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G206" s="6">
         <v>211</v>
@@ -8054,16 +8058,16 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207" s="108" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B207" s="67" t="s">
         <v>48</v>
       </c>
       <c r="C207" s="92" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D207" s="130" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
@@ -8073,16 +8077,16 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="108" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B208" s="67" t="s">
         <v>2</v>
       </c>
       <c r="C208" s="92" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D208" s="130" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
@@ -8092,16 +8096,16 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="108" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B209" s="67" t="s">
         <v>6</v>
       </c>
       <c r="C209" s="92" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D209" s="130" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
@@ -8111,16 +8115,16 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="108" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B210" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C210" s="92" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D210" s="130" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
@@ -8130,19 +8134,19 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="107" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B211" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C211" s="92" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D211" s="130" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E211" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F211" s="6"/>
       <c r="G211" s="6">
@@ -8151,16 +8155,16 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212" s="107" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B212" s="74" t="s">
         <v>113</v>
       </c>
       <c r="C212" s="103" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D212" s="130" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
@@ -8170,16 +8174,16 @@
     </row>
     <row r="213" spans="1:7" ht="91">
       <c r="A213" s="107" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B213" s="67" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C213" s="92" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D213" s="130" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
@@ -8189,16 +8193,16 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="107" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B214" s="67" t="s">
         <v>48</v>
       </c>
       <c r="C214" s="92" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D214" s="130" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
@@ -8208,16 +8212,16 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="107" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B215" s="76" t="s">
+        <v>395</v>
+      </c>
+      <c r="C215" s="92" t="s">
         <v>396</v>
       </c>
-      <c r="C215" s="92" t="s">
-        <v>397</v>
-      </c>
       <c r="D215" s="130" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
@@ -8227,16 +8231,16 @@
     </row>
     <row r="216" spans="1:7" ht="36" customHeight="1">
       <c r="A216" s="107" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B216" s="67" t="s">
         <v>2</v>
       </c>
       <c r="C216" s="92" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D216" s="130" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F216" s="6"/>
       <c r="G216" s="6">
@@ -8245,16 +8249,16 @@
     </row>
     <row r="217" spans="1:7" ht="36" customHeight="1">
       <c r="A217" s="107" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B217" s="67" t="s">
         <v>6</v>
       </c>
       <c r="C217" s="92" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D217" s="130" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F217" s="6"/>
       <c r="G217" s="6">
@@ -8263,19 +8267,19 @@
     </row>
     <row r="218" spans="1:7" ht="55" customHeight="1">
       <c r="A218" s="132" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B218" s="133" t="s">
         <v>14</v>
       </c>
       <c r="C218" s="134" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D218" s="135" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E218" s="136" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F218" s="6"/>
       <c r="G218" s="6">
@@ -8324,10 +8328,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8335,10 +8339,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8346,10 +8350,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8357,10 +8361,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8368,10 +8372,10 @@
         <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8379,10 +8383,10 @@
         <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -8559,10 +8563,10 @@
         <v>113</v>
       </c>
       <c r="D1" s="68" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F1" s="67" t="s">
         <v>23</v>
@@ -8601,10 +8605,10 @@
         <v>19</v>
       </c>
       <c r="R1" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="S1" s="67" t="s">
         <v>388</v>
-      </c>
-      <c r="S1" s="67" t="s">
-        <v>389</v>
       </c>
       <c r="T1" s="67" t="s">
         <v>32</v>
@@ -8657,10 +8661,10 @@
         <v>48</v>
       </c>
       <c r="E1" s="76" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F1" s="76" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G1" s="76" t="s">
         <v>2</v>
@@ -8681,7 +8685,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -8700,7 +8704,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -8721,7 +8725,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -8740,7 +8744,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -8759,7 +8763,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -8778,7 +8782,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -8797,7 +8801,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -8816,7 +8820,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -8914,13 +8918,13 @@
         <v>113</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D1" s="67" t="s">
         <v>48</v>
       </c>
       <c r="E1" s="76" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F1" s="67" t="s">
         <v>2</v>
@@ -8941,11 +8945,11 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G2" s="6">
         <v>99</v>
@@ -8961,13 +8965,13 @@
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -8983,11 +8987,11 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G4" s="6">
         <v>2</v>
@@ -9003,11 +9007,11 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G5" s="6">
         <v>3</v>
@@ -9023,11 +9027,11 @@
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G6" s="6">
         <v>4</v>
@@ -9043,11 +9047,11 @@
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G7" s="6">
         <v>5</v>
@@ -9236,7 +9240,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>84</v>
@@ -10365,10 +10369,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -10379,10 +10383,10 @@
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
